--- a/Data Cleaning/nutritionixAPI/withNutrients.xlsx
+++ b/Data Cleaning/nutritionixAPI/withNutrients.xlsx
@@ -9946,6 +9946,21 @@
       <c r="I202" t="n">
         <v>152.55</v>
       </c>
+      <c r="J202" t="n">
+        <v>74.45</v>
+      </c>
+      <c r="K202" t="n">
+        <v>477.14</v>
+      </c>
+      <c r="L202" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="M202" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="N202" t="n">
+        <v>21.21</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
@@ -9976,6 +9991,21 @@
       <c r="I203" t="n">
         <v>219.6</v>
       </c>
+      <c r="J203" t="n">
+        <v>51.45</v>
+      </c>
+      <c r="K203" t="n">
+        <v>501.2400000000001</v>
+      </c>
+      <c r="L203" t="n">
+        <v>20.83</v>
+      </c>
+      <c r="M203" t="n">
+        <v>18.13</v>
+      </c>
+      <c r="N203" t="n">
+        <v>39.99999999999999</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
@@ -10006,6 +10036,21 @@
       <c r="I204" t="n">
         <v>279.9</v>
       </c>
+      <c r="J204" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="K204" t="n">
+        <v>573.9300000000001</v>
+      </c>
+      <c r="L204" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="M204" t="n">
+        <v>29.29</v>
+      </c>
+      <c r="N204" t="n">
+        <v>65.01000000000001</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
@@ -10034,6 +10079,21 @@
       </c>
       <c r="I205" t="n">
         <v>240.3</v>
+      </c>
+      <c r="J205" t="n">
+        <v>74.45</v>
+      </c>
+      <c r="K205" t="n">
+        <v>477.14</v>
+      </c>
+      <c r="L205" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="M205" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="N205" t="n">
+        <v>21.21</v>
       </c>
     </row>
     <row r="206">
@@ -10065,6 +10125,21 @@
       <c r="I206" t="n">
         <v>205.65</v>
       </c>
+      <c r="J206" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="K206" t="n">
+        <v>759.0000000000001</v>
+      </c>
+      <c r="L206" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="M206" t="n">
+        <v>52.18</v>
+      </c>
+      <c r="N206" t="n">
+        <v>53.45</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
@@ -10095,6 +10170,21 @@
       <c r="I207" t="n">
         <v>245.7</v>
       </c>
+      <c r="J207" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="K207" t="n">
+        <v>606.45</v>
+      </c>
+      <c r="L207" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="M207" t="n">
+        <v>22.14</v>
+      </c>
+      <c r="N207" t="n">
+        <v>84.39999999999999</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
@@ -10123,6 +10213,21 @@
       </c>
       <c r="I208" t="n">
         <v>134.55</v>
+      </c>
+      <c r="J208" t="n">
+        <v>74.45</v>
+      </c>
+      <c r="K208" t="n">
+        <v>477.14</v>
+      </c>
+      <c r="L208" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="M208" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="N208" t="n">
+        <v>21.21</v>
       </c>
     </row>
     <row r="209">
@@ -10154,6 +10259,21 @@
       <c r="I209" t="n">
         <v>262.8</v>
       </c>
+      <c r="J209" t="n">
+        <v>78.17999999999999</v>
+      </c>
+      <c r="K209" t="n">
+        <v>567.3299999999999</v>
+      </c>
+      <c r="L209" t="n">
+        <v>23.08</v>
+      </c>
+      <c r="M209" t="n">
+        <v>15.69</v>
+      </c>
+      <c r="N209" t="n">
+        <v>34.35</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -10184,6 +10304,21 @@
       <c r="I210" t="n">
         <v>225.9</v>
       </c>
+      <c r="J210" t="n">
+        <v>23.74</v>
+      </c>
+      <c r="K210" t="n">
+        <v>436.6200000000001</v>
+      </c>
+      <c r="L210" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="M210" t="n">
+        <v>25.51</v>
+      </c>
+      <c r="N210" t="n">
+        <v>29.87</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -10212,6 +10347,21 @@
       </c>
       <c r="I211" t="n">
         <v>205.2</v>
+      </c>
+      <c r="J211" t="n">
+        <v>80</v>
+      </c>
+      <c r="K211" t="n">
+        <v>508.54</v>
+      </c>
+      <c r="L211" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="M211" t="n">
+        <v>10.32</v>
+      </c>
+      <c r="N211" t="n">
+        <v>22.32</v>
       </c>
     </row>
     <row r="212">
@@ -10243,6 +10393,21 @@
       <c r="I212" t="n">
         <v>177.75</v>
       </c>
+      <c r="J212" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="K212" t="n">
+        <v>306.63</v>
+      </c>
+      <c r="L212" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="M212" t="n">
+        <v>18.82</v>
+      </c>
+      <c r="N212" t="n">
+        <v>23.2</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
@@ -10273,6 +10438,21 @@
       <c r="I213" t="n">
         <v>111.6</v>
       </c>
+      <c r="J213" t="n">
+        <v>30.18</v>
+      </c>
+      <c r="K213" t="n">
+        <v>650.9100000000001</v>
+      </c>
+      <c r="L213" t="n">
+        <v>15.85</v>
+      </c>
+      <c r="M213" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="N213" t="n">
+        <v>91.70999999999999</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
@@ -10301,6 +10481,21 @@
       </c>
       <c r="I214" t="n">
         <v>172.8</v>
+      </c>
+      <c r="J214" t="n">
+        <v>77.47999999999999</v>
+      </c>
+      <c r="K214" t="n">
+        <v>503.11</v>
+      </c>
+      <c r="L214" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="M214" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="N214" t="n">
+        <v>22.62</v>
       </c>
     </row>
     <row r="215">
@@ -10332,6 +10527,21 @@
       <c r="I215" t="n">
         <v>211.05</v>
       </c>
+      <c r="J215" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="K215" t="n">
+        <v>437.6</v>
+      </c>
+      <c r="L215" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="M215" t="n">
+        <v>21.82</v>
+      </c>
+      <c r="N215" t="n">
+        <v>55.73</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
@@ -10362,6 +10572,21 @@
       <c r="I216" t="n">
         <v>172.35</v>
       </c>
+      <c r="J216" t="n">
+        <v>16</v>
+      </c>
+      <c r="K216" t="n">
+        <v>474.71</v>
+      </c>
+      <c r="L216" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="M216" t="n">
+        <v>24.07</v>
+      </c>
+      <c r="N216" t="n">
+        <v>49.23</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -10390,6 +10615,21 @@
       </c>
       <c r="I217" t="n">
         <v>197.55</v>
+      </c>
+      <c r="J217" t="n">
+        <v>75.56999999999999</v>
+      </c>
+      <c r="K217" t="n">
+        <v>486.03</v>
+      </c>
+      <c r="L217" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="M217" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="N217" t="n">
+        <v>21.64</v>
       </c>
     </row>
     <row r="218">
@@ -10421,6 +10661,21 @@
       <c r="I218" t="n">
         <v>190.8</v>
       </c>
+      <c r="J218" t="n">
+        <v>51.39</v>
+      </c>
+      <c r="K218" t="n">
+        <v>616.6099999999999</v>
+      </c>
+      <c r="L218" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="M218" t="n">
+        <v>19.01</v>
+      </c>
+      <c r="N218" t="n">
+        <v>58.56</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
@@ -10451,6 +10706,21 @@
       <c r="I219" t="n">
         <v>200.7</v>
       </c>
+      <c r="J219" t="n">
+        <v>57.28</v>
+      </c>
+      <c r="K219" t="n">
+        <v>712.3099999999999</v>
+      </c>
+      <c r="L219" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="M219" t="n">
+        <v>30.72</v>
+      </c>
+      <c r="N219" t="n">
+        <v>51.00000000000001</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -10479,6 +10749,21 @@
       </c>
       <c r="I220" t="n">
         <v>182.7</v>
+      </c>
+      <c r="J220" t="n">
+        <v>42.14</v>
+      </c>
+      <c r="K220" t="n">
+        <v>300.65</v>
+      </c>
+      <c r="L220" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="M220" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="N220" t="n">
+        <v>14.5</v>
       </c>
     </row>
     <row r="221">
@@ -10511,6 +10796,21 @@
       <c r="I221" t="n">
         <v>154.35</v>
       </c>
+      <c r="J221" t="n">
+        <v>13.77</v>
+      </c>
+      <c r="K221" t="n">
+        <v>163.4</v>
+      </c>
+      <c r="L221" t="n">
+        <v>4.720000000000001</v>
+      </c>
+      <c r="M221" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="N221" t="n">
+        <v>13.54</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
@@ -10542,6 +10842,21 @@
       <c r="I222" t="n">
         <v>162.45</v>
       </c>
+      <c r="J222" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="K222" t="n">
+        <v>442.77</v>
+      </c>
+      <c r="L222" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M222" t="n">
+        <v>22.04</v>
+      </c>
+      <c r="N222" t="n">
+        <v>51.19</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
@@ -10573,6 +10888,21 @@
       <c r="I223" t="n">
         <v>243</v>
       </c>
+      <c r="J223" t="n">
+        <v>33.47</v>
+      </c>
+      <c r="K223" t="n">
+        <v>287.63</v>
+      </c>
+      <c r="L223" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M223" t="n">
+        <v>10.31</v>
+      </c>
+      <c r="N223" t="n">
+        <v>16.03</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
@@ -10602,6 +10932,21 @@
       </c>
       <c r="I224" t="n">
         <v>162</v>
+      </c>
+      <c r="J224" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="K224" t="n">
+        <v>113.9</v>
+      </c>
+      <c r="L224" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="M224" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="N224" t="n">
+        <v>21.56</v>
       </c>
     </row>
     <row r="225">
@@ -10633,6 +10978,21 @@
       </c>
       <c r="I225" t="n">
         <v>184.5</v>
+      </c>
+      <c r="J225" t="n">
+        <v>6.890000000000001</v>
+      </c>
+      <c r="K225" t="n">
+        <v>187.65</v>
+      </c>
+      <c r="L225" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M225" t="n">
+        <v>10.61</v>
+      </c>
+      <c r="N225" t="n">
+        <v>17.29</v>
       </c>
     </row>
     <row r="226">
@@ -10666,6 +11026,21 @@
       <c r="I226" t="n">
         <v>249.3</v>
       </c>
+      <c r="J226" t="n">
+        <v>42.11</v>
+      </c>
+      <c r="K226" t="n">
+        <v>398.75</v>
+      </c>
+      <c r="L226" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M226" t="n">
+        <v>20.03</v>
+      </c>
+      <c r="N226" t="n">
+        <v>15.65</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -10697,6 +11072,21 @@
       <c r="I227" t="n">
         <v>131.4</v>
       </c>
+      <c r="J227" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="K227" t="n">
+        <v>202</v>
+      </c>
+      <c r="L227" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M227" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="N227" t="n">
+        <v>24.8</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -10726,6 +11116,21 @@
       </c>
       <c r="I228" t="n">
         <v>137.7</v>
+      </c>
+      <c r="J228" t="n">
+        <v>34.68</v>
+      </c>
+      <c r="K228" t="n">
+        <v>338</v>
+      </c>
+      <c r="L228" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="M228" t="n">
+        <v>15.58</v>
+      </c>
+      <c r="N228" t="n">
+        <v>14.91</v>
       </c>
     </row>
     <row r="229">
@@ -10758,6 +11163,21 @@
       <c r="I229" t="n">
         <v>270</v>
       </c>
+      <c r="J229" t="n">
+        <v>21.16</v>
+      </c>
+      <c r="K229" t="n">
+        <v>244.96</v>
+      </c>
+      <c r="L229" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="M229" t="n">
+        <v>14.41</v>
+      </c>
+      <c r="N229" t="n">
+        <v>9.31</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
@@ -10787,6 +11207,21 @@
       </c>
       <c r="I230" t="n">
         <v>167.85</v>
+      </c>
+      <c r="J230" t="n">
+        <v>60.13999999999999</v>
+      </c>
+      <c r="K230" t="n">
+        <v>377.23</v>
+      </c>
+      <c r="L230" t="n">
+        <v>9</v>
+      </c>
+      <c r="M230" t="n">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="N230" t="n">
+        <v>16.85</v>
       </c>
     </row>
     <row r="231">
@@ -10819,6 +11254,21 @@
       <c r="I231" t="n">
         <v>200.25</v>
       </c>
+      <c r="J231" t="n">
+        <v>19.02</v>
+      </c>
+      <c r="K231" t="n">
+        <v>288.2</v>
+      </c>
+      <c r="L231" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="M231" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="N231" t="n">
+        <v>15.71</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
@@ -10850,6 +11300,21 @@
       <c r="I232" t="n">
         <v>243</v>
       </c>
+      <c r="J232" t="n">
+        <v>62.22</v>
+      </c>
+      <c r="K232" t="n">
+        <v>440.61</v>
+      </c>
+      <c r="L232" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="M232" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="N232" t="n">
+        <v>23.66</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
@@ -10881,6 +11346,21 @@
       <c r="I233" t="n">
         <v>142.2</v>
       </c>
+      <c r="J233" t="n">
+        <v>40.75</v>
+      </c>
+      <c r="K233" t="n">
+        <v>245.5</v>
+      </c>
+      <c r="L233" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="M233" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="N233" t="n">
+        <v>16.38</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
@@ -10911,6 +11391,21 @@
       </c>
       <c r="I234" t="n">
         <v>188.1</v>
+      </c>
+      <c r="J234" t="n">
+        <v>40.75</v>
+      </c>
+      <c r="K234" t="n">
+        <v>350</v>
+      </c>
+      <c r="L234" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="M234" t="n">
+        <v>14.49</v>
+      </c>
+      <c r="N234" t="n">
+        <v>12.79</v>
       </c>
     </row>
     <row r="235">
@@ -10944,6 +11439,21 @@
       <c r="I235" t="n">
         <v>274.95</v>
       </c>
+      <c r="J235" t="n">
+        <v>60.26</v>
+      </c>
+      <c r="K235" t="n">
+        <v>432.75</v>
+      </c>
+      <c r="L235" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="M235" t="n">
+        <v>12.32</v>
+      </c>
+      <c r="N235" t="n">
+        <v>22.78</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
@@ -10974,6 +11484,21 @@
       </c>
       <c r="I236" t="n">
         <v>121.95</v>
+      </c>
+      <c r="J236" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="K236" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="L236" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="M236" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="N236" t="n">
+        <v>17.21</v>
       </c>
     </row>
     <row r="237">
@@ -11008,6 +11533,21 @@
       <c r="I237" t="n">
         <v>165.15</v>
       </c>
+      <c r="J237" t="n">
+        <v>71.23999999999999</v>
+      </c>
+      <c r="K237" t="n">
+        <v>642.6999999999999</v>
+      </c>
+      <c r="L237" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="M237" t="n">
+        <v>27.07999999999999</v>
+      </c>
+      <c r="N237" t="n">
+        <v>30.74</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
@@ -11040,6 +11580,21 @@
       <c r="I238" t="n">
         <v>245.25</v>
       </c>
+      <c r="J238" t="n">
+        <v>60.26</v>
+      </c>
+      <c r="K238" t="n">
+        <v>432.75</v>
+      </c>
+      <c r="L238" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="M238" t="n">
+        <v>12.32</v>
+      </c>
+      <c r="N238" t="n">
+        <v>22.78</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
@@ -11069,6 +11624,21 @@
       </c>
       <c r="I239" t="n">
         <v>160.2</v>
+      </c>
+      <c r="J239" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K239" t="n">
+        <v>209</v>
+      </c>
+      <c r="L239" t="n">
+        <v>3</v>
+      </c>
+      <c r="M239" t="n">
+        <v>14.31</v>
+      </c>
+      <c r="N239" t="n">
+        <v>11.26</v>
       </c>
     </row>
     <row r="240">
@@ -11101,6 +11671,21 @@
       <c r="I240" t="n">
         <v>175.5</v>
       </c>
+      <c r="J240" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K240" t="n">
+        <v>625.54</v>
+      </c>
+      <c r="L240" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="M240" t="n">
+        <v>50.29</v>
+      </c>
+      <c r="N240" t="n">
+        <v>35.93</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
@@ -11132,6 +11717,21 @@
       <c r="I241" t="n">
         <v>212.4</v>
       </c>
+      <c r="J241" t="n">
+        <v>56.56</v>
+      </c>
+      <c r="K241" t="n">
+        <v>343.2</v>
+      </c>
+      <c r="L241" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="M241" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="N241" t="n">
+        <v>16.29</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
@@ -11160,6 +11760,21 @@
       </c>
       <c r="I242" t="n">
         <v>143.55</v>
+      </c>
+      <c r="J242" t="n">
+        <v>22.63</v>
+      </c>
+      <c r="K242" t="n">
+        <v>334.1</v>
+      </c>
+      <c r="L242" t="n">
+        <v>4</v>
+      </c>
+      <c r="M242" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="N242" t="n">
+        <v>38.89</v>
       </c>
     </row>
     <row r="243">
@@ -11192,6 +11807,21 @@
       <c r="I243" t="n">
         <v>84.60000000000001</v>
       </c>
+      <c r="J243" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K243" t="n">
+        <v>58</v>
+      </c>
+      <c r="L243" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="M243" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="N243" t="n">
+        <v>3.44</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
@@ -11219,6 +11849,21 @@
       </c>
       <c r="I244" t="n">
         <v>87.75</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="n">
+        <v>64</v>
+      </c>
+      <c r="L244" t="n">
+        <v>0</v>
+      </c>
+      <c r="M244" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N244" t="n">
+        <v>13.08</v>
       </c>
     </row>
     <row r="245">
@@ -11252,6 +11897,21 @@
       <c r="I245" t="n">
         <v>169.2</v>
       </c>
+      <c r="J245" t="n">
+        <v>33.73</v>
+      </c>
+      <c r="K245" t="n">
+        <v>293.85</v>
+      </c>
+      <c r="L245" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="M245" t="n">
+        <v>9.66</v>
+      </c>
+      <c r="N245" t="n">
+        <v>18.58</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
@@ -11281,6 +11941,21 @@
       </c>
       <c r="I246" t="n">
         <v>125.1</v>
+      </c>
+      <c r="J246" t="n">
+        <v>32.63</v>
+      </c>
+      <c r="K246" t="n">
+        <v>343.65</v>
+      </c>
+      <c r="L246" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="M246" t="n">
+        <v>10.03</v>
+      </c>
+      <c r="N246" t="n">
+        <v>28.92</v>
       </c>
     </row>
     <row r="247">
@@ -11314,6 +11989,21 @@
       <c r="I247" t="n">
         <v>125.1</v>
       </c>
+      <c r="J247" t="n">
+        <v>10.92</v>
+      </c>
+      <c r="K247" t="n">
+        <v>233</v>
+      </c>
+      <c r="L247" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="M247" t="n">
+        <v>8.48</v>
+      </c>
+      <c r="N247" t="n">
+        <v>28.11</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
@@ -11346,6 +12036,21 @@
       <c r="I248" t="n">
         <v>153</v>
       </c>
+      <c r="J248" t="n">
+        <v>30.97</v>
+      </c>
+      <c r="K248" t="n">
+        <v>401.35</v>
+      </c>
+      <c r="L248" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M248" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="N248" t="n">
+        <v>31.12</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
@@ -11379,6 +12084,21 @@
       </c>
       <c r="I249" t="n">
         <v>181.8</v>
+      </c>
+      <c r="J249" t="n">
+        <v>80.02</v>
+      </c>
+      <c r="K249" t="n">
+        <v>511.4</v>
+      </c>
+      <c r="L249" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="M249" t="n">
+        <v>10.51</v>
+      </c>
+      <c r="N249" t="n">
+        <v>22.57</v>
       </c>
     </row>
     <row r="250">
@@ -11415,6 +12135,21 @@
       <c r="I250" t="n">
         <v>189.45</v>
       </c>
+      <c r="J250" t="n">
+        <v>73.87</v>
+      </c>
+      <c r="K250" t="n">
+        <v>851.85</v>
+      </c>
+      <c r="L250" t="n">
+        <v>24.97</v>
+      </c>
+      <c r="M250" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="N250" t="n">
+        <v>56.61</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
@@ -11449,6 +12184,21 @@
       </c>
       <c r="I251" t="n">
         <v>172.35</v>
+      </c>
+      <c r="J251" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="K251" t="n">
+        <v>736.4300000000001</v>
+      </c>
+      <c r="L251" t="n">
+        <v>5.199999999999999</v>
+      </c>
+      <c r="M251" t="n">
+        <v>51.70999999999999</v>
+      </c>
+      <c r="N251" t="n">
+        <v>51.90000000000001</v>
       </c>
     </row>
     <row r="252">

--- a/Data Cleaning/nutritionixAPI/withNutrients.xlsx
+++ b/Data Cleaning/nutritionixAPI/withNutrients.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3420" yWindow="500" windowWidth="21960" windowHeight="17500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -37575,6 +37575,21 @@
       <c r="I802" t="n">
         <v>113.85</v>
       </c>
+      <c r="J802" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="K802" t="n">
+        <v>502.5</v>
+      </c>
+      <c r="L802" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="M802" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="N802" t="n">
+        <v>29.19</v>
+      </c>
     </row>
     <row r="803">
       <c r="A803" s="2" t="n">
@@ -37611,6 +37626,21 @@
       <c r="I803" t="n">
         <v>124.65</v>
       </c>
+      <c r="J803" t="n">
+        <v>68.15000000000001</v>
+      </c>
+      <c r="K803" t="n">
+        <v>830.01</v>
+      </c>
+      <c r="L803" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="M803" t="n">
+        <v>16.09</v>
+      </c>
+      <c r="N803" t="n">
+        <v>57.13</v>
+      </c>
     </row>
     <row r="804">
       <c r="A804" s="2" t="n">
@@ -37646,6 +37676,21 @@
       <c r="I804" t="n">
         <v>87.75000000000001</v>
       </c>
+      <c r="J804" t="n">
+        <v>58.17</v>
+      </c>
+      <c r="K804" t="n">
+        <v>526.8</v>
+      </c>
+      <c r="L804" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="M804" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="N804" t="n">
+        <v>25.92</v>
+      </c>
     </row>
     <row r="805">
       <c r="A805" s="2" t="n">
@@ -37680,6 +37725,21 @@
       </c>
       <c r="I805" t="n">
         <v>82.35000000000001</v>
+      </c>
+      <c r="J805" t="n">
+        <v>30.85</v>
+      </c>
+      <c r="K805" t="n">
+        <v>360.71</v>
+      </c>
+      <c r="L805" t="n">
+        <v>6.850000000000001</v>
+      </c>
+      <c r="M805" t="n">
+        <v>12.63</v>
+      </c>
+      <c r="N805" t="n">
+        <v>12.75</v>
       </c>
     </row>
     <row r="806">
@@ -37717,6 +37777,21 @@
       <c r="I806" t="n">
         <v>100.8</v>
       </c>
+      <c r="J806" t="n">
+        <v>125.01</v>
+      </c>
+      <c r="K806" t="n">
+        <v>1489.24</v>
+      </c>
+      <c r="L806" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="M806" t="n">
+        <v>58.78</v>
+      </c>
+      <c r="N806" t="n">
+        <v>69.95</v>
+      </c>
     </row>
     <row r="807">
       <c r="A807" s="2" t="n">
@@ -37750,6 +37825,21 @@
       </c>
       <c r="I807" t="n">
         <v>109.8</v>
+      </c>
+      <c r="J807" t="n">
+        <v>57.79</v>
+      </c>
+      <c r="K807" t="n">
+        <v>403.2</v>
+      </c>
+      <c r="L807" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="M807" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="N807" t="n">
+        <v>21.13</v>
       </c>
     </row>
     <row r="808">
@@ -37785,6 +37875,21 @@
       </c>
       <c r="I808" t="n">
         <v>116.1</v>
+      </c>
+      <c r="J808" t="n">
+        <v>64.54000000000001</v>
+      </c>
+      <c r="K808" t="n">
+        <v>499.49</v>
+      </c>
+      <c r="L808" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="M808" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="N808" t="n">
+        <v>17.82</v>
       </c>
     </row>
     <row r="809">
@@ -37822,6 +37927,21 @@
       <c r="I809" t="n">
         <v>114.75</v>
       </c>
+      <c r="J809" t="n">
+        <v>46.27</v>
+      </c>
+      <c r="K809" t="n">
+        <v>627.83</v>
+      </c>
+      <c r="L809" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="M809" t="n">
+        <v>25.94</v>
+      </c>
+      <c r="N809" t="n">
+        <v>30.95</v>
+      </c>
     </row>
     <row r="810">
       <c r="A810" s="2" t="n">
@@ -37855,6 +37975,21 @@
       </c>
       <c r="I810" t="n">
         <v>98.09999999999999</v>
+      </c>
+      <c r="J810" t="n">
+        <v>57.79</v>
+      </c>
+      <c r="K810" t="n">
+        <v>403.2</v>
+      </c>
+      <c r="L810" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="M810" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="N810" t="n">
+        <v>21.13</v>
       </c>
     </row>
     <row r="811">
@@ -37890,6 +38025,21 @@
       </c>
       <c r="I811" t="n">
         <v>89.09999999999999</v>
+      </c>
+      <c r="J811" t="n">
+        <v>88.28</v>
+      </c>
+      <c r="K811" t="n">
+        <v>572.3299999999999</v>
+      </c>
+      <c r="L811" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="M811" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="N811" t="n">
+        <v>44.75999999999999</v>
       </c>
     </row>
     <row r="812">
@@ -37927,6 +38077,21 @@
       <c r="I812" t="n">
         <v>108</v>
       </c>
+      <c r="J812" t="n">
+        <v>66.23999999999999</v>
+      </c>
+      <c r="K812" t="n">
+        <v>581.99</v>
+      </c>
+      <c r="L812" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="M812" t="n">
+        <v>13.97</v>
+      </c>
+      <c r="N812" t="n">
+        <v>47.74999999999999</v>
+      </c>
     </row>
     <row r="813">
       <c r="A813" s="2" t="n">
@@ -37960,6 +38125,21 @@
       </c>
       <c r="I813" t="n">
         <v>93.59999999999999</v>
+      </c>
+      <c r="J813" t="n">
+        <v>57.79</v>
+      </c>
+      <c r="K813" t="n">
+        <v>403.2</v>
+      </c>
+      <c r="L813" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="M813" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="N813" t="n">
+        <v>21.13</v>
       </c>
     </row>
     <row r="814">
@@ -37995,6 +38175,21 @@
       </c>
       <c r="I814" t="n">
         <v>93.59999999999999</v>
+      </c>
+      <c r="J814" t="n">
+        <v>18.66</v>
+      </c>
+      <c r="K814" t="n">
+        <v>305</v>
+      </c>
+      <c r="L814" t="n">
+        <v>0.8400000000000001</v>
+      </c>
+      <c r="M814" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="N814" t="n">
+        <v>47.34</v>
       </c>
     </row>
     <row r="815">
@@ -38032,6 +38227,21 @@
       <c r="I815" t="n">
         <v>104.85</v>
       </c>
+      <c r="J815" t="n">
+        <v>42.73</v>
+      </c>
+      <c r="K815" t="n">
+        <v>741.29</v>
+      </c>
+      <c r="L815" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="M815" t="n">
+        <v>29.74</v>
+      </c>
+      <c r="N815" t="n">
+        <v>51.67000000000001</v>
+      </c>
     </row>
     <row r="816">
       <c r="A816" s="2" t="n">
@@ -38062,6 +38272,21 @@
       <c r="I816" t="n">
         <v>155.7</v>
       </c>
+      <c r="J816" t="n">
+        <v>36.72</v>
+      </c>
+      <c r="K816" t="n">
+        <v>392.5</v>
+      </c>
+      <c r="L816" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="M816" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="N816" t="n">
+        <v>29.2</v>
+      </c>
     </row>
     <row r="817">
       <c r="A817" s="2" t="n">
@@ -38090,6 +38315,21 @@
       <c r="I817" t="n">
         <v>284.4</v>
       </c>
+      <c r="J817" t="n">
+        <v>75.73</v>
+      </c>
+      <c r="K817" t="n">
+        <v>424.24</v>
+      </c>
+      <c r="L817" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="M817" t="n">
+        <v>8.209999999999999</v>
+      </c>
+      <c r="N817" t="n">
+        <v>14.14</v>
+      </c>
     </row>
     <row r="818">
       <c r="A818" s="2" t="n">
@@ -38118,6 +38358,21 @@
       <c r="I818" t="n">
         <v>159.3</v>
       </c>
+      <c r="J818" t="n">
+        <v>44.98</v>
+      </c>
+      <c r="K818" t="n">
+        <v>945.5</v>
+      </c>
+      <c r="L818" t="n">
+        <v>17</v>
+      </c>
+      <c r="M818" t="n">
+        <v>74.64</v>
+      </c>
+      <c r="N818" t="n">
+        <v>39.39</v>
+      </c>
     </row>
     <row r="819">
       <c r="A819" s="2" t="n">
@@ -38146,6 +38401,21 @@
       </c>
       <c r="I819" t="n">
         <v>257.85</v>
+      </c>
+      <c r="J819" t="n">
+        <v>29.86</v>
+      </c>
+      <c r="K819" t="n">
+        <v>674.05</v>
+      </c>
+      <c r="L819" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M819" t="n">
+        <v>42.21999999999999</v>
+      </c>
+      <c r="N819" t="n">
+        <v>41.34</v>
       </c>
     </row>
     <row r="820">
@@ -38177,6 +38447,21 @@
       <c r="I820" t="n">
         <v>154.8</v>
       </c>
+      <c r="J820" t="n">
+        <v>29.96</v>
+      </c>
+      <c r="K820" t="n">
+        <v>141</v>
+      </c>
+      <c r="L820" t="n">
+        <v>4.649999999999999</v>
+      </c>
+      <c r="M820" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="N820" t="n">
+        <v>5.02</v>
+      </c>
     </row>
     <row r="821">
       <c r="A821" s="2" t="n">
@@ -38205,6 +38490,21 @@
       <c r="I821" t="n">
         <v>119.7</v>
       </c>
+      <c r="J821" t="n">
+        <v>54.92</v>
+      </c>
+      <c r="K821" t="n">
+        <v>471</v>
+      </c>
+      <c r="L821" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M821" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="N821" t="n">
+        <v>25.45</v>
+      </c>
     </row>
     <row r="822">
       <c r="A822" s="2" t="n">
@@ -38232,6 +38532,21 @@
       <c r="I822" t="n">
         <v>254.25</v>
       </c>
+      <c r="J822" t="n">
+        <v>41.74</v>
+      </c>
+      <c r="K822" t="n">
+        <v>364.65</v>
+      </c>
+      <c r="L822" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="M822" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="N822" t="n">
+        <v>19.72</v>
+      </c>
     </row>
     <row r="823">
       <c r="A823" s="2" t="n">
@@ -38260,6 +38575,21 @@
       <c r="I823" t="n">
         <v>211.95</v>
       </c>
+      <c r="J823" t="n">
+        <v>46.98</v>
+      </c>
+      <c r="K823" t="n">
+        <v>813.73</v>
+      </c>
+      <c r="L823" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M823" t="n">
+        <v>36.83</v>
+      </c>
+      <c r="N823" t="n">
+        <v>68.18000000000001</v>
+      </c>
     </row>
     <row r="824">
       <c r="A824" s="2" t="n">
@@ -38288,6 +38618,21 @@
       <c r="I824" t="n">
         <v>186.75</v>
       </c>
+      <c r="J824" t="n">
+        <v>45.03</v>
+      </c>
+      <c r="K824" t="n">
+        <v>439.35</v>
+      </c>
+      <c r="L824" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="M824" t="n">
+        <v>5.089999999999999</v>
+      </c>
+      <c r="N824" t="n">
+        <v>52.82</v>
+      </c>
     </row>
     <row r="825">
       <c r="A825" s="2" t="n">
@@ -38314,6 +38659,21 @@
       </c>
       <c r="I825" t="n">
         <v>260.1</v>
+      </c>
+      <c r="J825" t="n">
+        <v>46</v>
+      </c>
+      <c r="K825" t="n">
+        <v>273</v>
+      </c>
+      <c r="L825" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="M825" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="N825" t="n">
+        <v>8.6</v>
       </c>
     </row>
     <row r="826">
@@ -38345,6 +38705,21 @@
       <c r="I826" t="n">
         <v>238.95</v>
       </c>
+      <c r="J826" t="n">
+        <v>59.65</v>
+      </c>
+      <c r="K826" t="n">
+        <v>968.67</v>
+      </c>
+      <c r="L826" t="n">
+        <v>5.720000000000001</v>
+      </c>
+      <c r="M826" t="n">
+        <v>56.04000000000001</v>
+      </c>
+      <c r="N826" t="n">
+        <v>53.89999999999999</v>
+      </c>
     </row>
     <row r="827">
       <c r="A827" s="2" t="n">
@@ -38372,6 +38747,21 @@
       <c r="I827" t="n">
         <v>252.9</v>
       </c>
+      <c r="J827" t="n">
+        <v>46</v>
+      </c>
+      <c r="K827" t="n">
+        <v>273</v>
+      </c>
+      <c r="L827" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="M827" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="N827" t="n">
+        <v>8.6</v>
+      </c>
     </row>
     <row r="828">
       <c r="A828" s="2" t="n">
@@ -38400,6 +38790,21 @@
       <c r="I828" t="n">
         <v>210.15</v>
       </c>
+      <c r="J828" t="n">
+        <v>27.68</v>
+      </c>
+      <c r="K828" t="n">
+        <v>130</v>
+      </c>
+      <c r="L828" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M828" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="N828" t="n">
+        <v>3.45</v>
+      </c>
     </row>
     <row r="829">
       <c r="A829" s="2" t="n">
@@ -38428,6 +38833,21 @@
       <c r="I829" t="n">
         <v>226.8</v>
       </c>
+      <c r="J829" t="n">
+        <v>27.68</v>
+      </c>
+      <c r="K829" t="n">
+        <v>130</v>
+      </c>
+      <c r="L829" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M829" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="N829" t="n">
+        <v>3.45</v>
+      </c>
     </row>
     <row r="830">
       <c r="A830" s="2" t="n">
@@ -38456,6 +38876,21 @@
       <c r="I830" t="n">
         <v>266.85</v>
       </c>
+      <c r="J830" t="n">
+        <v>27.68</v>
+      </c>
+      <c r="K830" t="n">
+        <v>130</v>
+      </c>
+      <c r="L830" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M830" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="N830" t="n">
+        <v>3.45</v>
+      </c>
     </row>
     <row r="831">
       <c r="A831" s="2" t="n">
@@ -38484,6 +38919,21 @@
       <c r="I831" t="n">
         <v>163.35</v>
       </c>
+      <c r="J831" t="n">
+        <v>27.68</v>
+      </c>
+      <c r="K831" t="n">
+        <v>130</v>
+      </c>
+      <c r="L831" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M831" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="N831" t="n">
+        <v>3.45</v>
+      </c>
     </row>
     <row r="832">
       <c r="A832" s="2" t="n">
@@ -38511,6 +38961,21 @@
       <c r="I832" t="n">
         <v>266.4</v>
       </c>
+      <c r="J832" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="K832" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="L832" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="M832" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="N832" t="n">
+        <v>2.21</v>
+      </c>
     </row>
     <row r="833">
       <c r="A833" s="2" t="n">
@@ -38540,6 +39005,21 @@
       <c r="I833" t="n">
         <v>260.55</v>
       </c>
+      <c r="J833" t="n">
+        <v>85.35999999999999</v>
+      </c>
+      <c r="K833" t="n">
+        <v>752.25</v>
+      </c>
+      <c r="L833" t="n">
+        <v>21.55</v>
+      </c>
+      <c r="M833" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="N833" t="n">
+        <v>46.79000000000001</v>
+      </c>
     </row>
     <row r="834">
       <c r="A834" s="2" t="n">
@@ -38568,6 +39048,21 @@
       <c r="I834" t="n">
         <v>157.5</v>
       </c>
+      <c r="J834" t="n">
+        <v>23.04</v>
+      </c>
+      <c r="K834" t="n">
+        <v>320.51</v>
+      </c>
+      <c r="L834" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="M834" t="n">
+        <v>13.05</v>
+      </c>
+      <c r="N834" t="n">
+        <v>24.98</v>
+      </c>
     </row>
     <row r="835">
       <c r="A835" s="2" t="n">
@@ -38595,6 +39090,21 @@
       <c r="I835" t="n">
         <v>188.55</v>
       </c>
+      <c r="J835" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="K835" t="n">
+        <v>329.47</v>
+      </c>
+      <c r="L835" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="M835" t="n">
+        <v>15.24</v>
+      </c>
+      <c r="N835" t="n">
+        <v>33.27</v>
+      </c>
     </row>
     <row r="836">
       <c r="A836" s="2" t="n">
@@ -38623,6 +39133,21 @@
       <c r="I836" t="n">
         <v>179.55</v>
       </c>
+      <c r="J836" t="n">
+        <v>23.94</v>
+      </c>
+      <c r="K836" t="n">
+        <v>546.5</v>
+      </c>
+      <c r="L836" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="M836" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="N836" t="n">
+        <v>70.36</v>
+      </c>
     </row>
     <row r="837">
       <c r="A837" s="2" t="n">
@@ -38650,6 +39175,21 @@
       <c r="I837" t="n">
         <v>264.15</v>
       </c>
+      <c r="J837" t="n">
+        <v>46</v>
+      </c>
+      <c r="K837" t="n">
+        <v>273</v>
+      </c>
+      <c r="L837" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="M837" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="N837" t="n">
+        <v>8.6</v>
+      </c>
     </row>
     <row r="838">
       <c r="A838" s="2" t="n">
@@ -38679,6 +39219,21 @@
       <c r="I838" t="n">
         <v>184.95</v>
       </c>
+      <c r="J838" t="n">
+        <v>41.26000000000001</v>
+      </c>
+      <c r="K838" t="n">
+        <v>387</v>
+      </c>
+      <c r="L838" t="n">
+        <v>4.800000000000001</v>
+      </c>
+      <c r="M838" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="N838" t="n">
+        <v>44.77999999999999</v>
+      </c>
     </row>
     <row r="839">
       <c r="A839" s="2" t="n">
@@ -38705,6 +39260,21 @@
       </c>
       <c r="I839" t="n">
         <v>248.4</v>
+      </c>
+      <c r="J839" t="n">
+        <v>30.86</v>
+      </c>
+      <c r="K839" t="n">
+        <v>158</v>
+      </c>
+      <c r="L839" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M839" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="N839" t="n">
+        <v>5.8</v>
       </c>
     </row>
     <row r="840">
@@ -38736,6 +39306,21 @@
       <c r="I840" t="n">
         <v>191.7</v>
       </c>
+      <c r="J840" t="n">
+        <v>41.26000000000001</v>
+      </c>
+      <c r="K840" t="n">
+        <v>660</v>
+      </c>
+      <c r="L840" t="n">
+        <v>4.800000000000001</v>
+      </c>
+      <c r="M840" t="n">
+        <v>31.43</v>
+      </c>
+      <c r="N840" t="n">
+        <v>50.69</v>
+      </c>
     </row>
     <row r="841">
       <c r="A841" s="2" t="n">
@@ -38763,6 +39348,21 @@
       <c r="I841" t="n">
         <v>238.95</v>
       </c>
+      <c r="J841" t="n">
+        <v>45.81</v>
+      </c>
+      <c r="K841" t="n">
+        <v>280.63</v>
+      </c>
+      <c r="L841" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="M841" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="N841" t="n">
+        <v>11.36</v>
+      </c>
     </row>
     <row r="842">
       <c r="A842" s="2" t="n">
@@ -38792,6 +39392,21 @@
       <c r="I842" t="n">
         <v>280.8</v>
       </c>
+      <c r="J842" t="n">
+        <v>86.94999999999999</v>
+      </c>
+      <c r="K842" t="n">
+        <v>636.27</v>
+      </c>
+      <c r="L842" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="M842" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="N842" t="n">
+        <v>19.68</v>
+      </c>
     </row>
     <row r="843">
       <c r="A843" s="2" t="n">
@@ -38819,6 +39434,21 @@
       <c r="I843" t="n">
         <v>405.45</v>
       </c>
+      <c r="J843" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="K843" t="n">
+        <v>45</v>
+      </c>
+      <c r="L843" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M843" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="N843" t="n">
+        <v>0.92</v>
+      </c>
     </row>
     <row r="844">
       <c r="A844" s="2" t="n">
@@ -38848,6 +39478,21 @@
       <c r="I844" t="n">
         <v>181.35</v>
       </c>
+      <c r="J844" t="n">
+        <v>50.92</v>
+      </c>
+      <c r="K844" t="n">
+        <v>434.27</v>
+      </c>
+      <c r="L844" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M844" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="N844" t="n">
+        <v>24.26</v>
+      </c>
     </row>
     <row r="845">
       <c r="A845" s="2" t="n">
@@ -38876,6 +39521,21 @@
       <c r="I845" t="n">
         <v>161.55</v>
       </c>
+      <c r="J845" t="n">
+        <v>38.19</v>
+      </c>
+      <c r="K845" t="n">
+        <v>463.0700000000001</v>
+      </c>
+      <c r="L845" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="M845" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="N845" t="n">
+        <v>33.52</v>
+      </c>
     </row>
     <row r="846">
       <c r="A846" s="2" t="n">
@@ -38905,6 +39565,21 @@
       <c r="I846" t="n">
         <v>209.25</v>
       </c>
+      <c r="J846" t="n">
+        <v>35.08</v>
+      </c>
+      <c r="K846" t="n">
+        <v>345.7</v>
+      </c>
+      <c r="L846" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M846" t="n">
+        <v>9.639999999999999</v>
+      </c>
+      <c r="N846" t="n">
+        <v>27.87</v>
+      </c>
     </row>
     <row r="847">
       <c r="A847" s="2" t="n">
@@ -38934,6 +39609,21 @@
       <c r="I847" t="n">
         <v>228.6</v>
       </c>
+      <c r="J847" t="n">
+        <v>44.21</v>
+      </c>
+      <c r="K847" t="n">
+        <v>344.41</v>
+      </c>
+      <c r="L847" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M847" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="N847" t="n">
+        <v>19.91</v>
+      </c>
     </row>
     <row r="848">
       <c r="A848" s="2" t="n">
@@ -38963,6 +39653,21 @@
       <c r="I848" t="n">
         <v>177.3</v>
       </c>
+      <c r="J848" t="n">
+        <v>89.59</v>
+      </c>
+      <c r="K848" t="n">
+        <v>542</v>
+      </c>
+      <c r="L848" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="M848" t="n">
+        <v>10.67</v>
+      </c>
+      <c r="N848" t="n">
+        <v>24.21</v>
+      </c>
     </row>
     <row r="849">
       <c r="A849" s="2" t="n">
@@ -38992,6 +39697,21 @@
       <c r="I849" t="n">
         <v>170.55</v>
       </c>
+      <c r="J849" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="K849" t="n">
+        <v>337</v>
+      </c>
+      <c r="L849" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M849" t="n">
+        <v>3.399999999999999</v>
+      </c>
+      <c r="N849" t="n">
+        <v>31.74</v>
+      </c>
     </row>
     <row r="850">
       <c r="A850" s="2" t="n">
@@ -39021,6 +39741,21 @@
       <c r="I850" t="n">
         <v>173.25</v>
       </c>
+      <c r="J850" t="n">
+        <v>50.92</v>
+      </c>
+      <c r="K850" t="n">
+        <v>434.27</v>
+      </c>
+      <c r="L850" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M850" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="N850" t="n">
+        <v>24.26</v>
+      </c>
     </row>
     <row r="851">
       <c r="A851" s="2" t="n">
@@ -39049,6 +39784,21 @@
       <c r="I851" t="n">
         <v>115.65</v>
       </c>
+      <c r="J851" t="n">
+        <v>40.27</v>
+      </c>
+      <c r="K851" t="n">
+        <v>195</v>
+      </c>
+      <c r="L851" t="n">
+        <v>9</v>
+      </c>
+      <c r="M851" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="N851" t="n">
+        <v>7.07</v>
+      </c>
     </row>
     <row r="852">
       <c r="A852" s="2" t="n">
@@ -39078,6 +39828,21 @@
       <c r="I852" t="n">
         <v>197.55</v>
       </c>
+      <c r="J852" t="n">
+        <v>57.82</v>
+      </c>
+      <c r="K852" t="n">
+        <v>395.36</v>
+      </c>
+      <c r="L852" t="n">
+        <v>8</v>
+      </c>
+      <c r="M852" t="n">
+        <v>6.000000000000001</v>
+      </c>
+      <c r="N852" t="n">
+        <v>26.84</v>
+      </c>
     </row>
     <row r="853">
       <c r="A853" s="2" t="n">
@@ -39107,6 +39872,21 @@
       <c r="I853" t="n">
         <v>232.65</v>
       </c>
+      <c r="J853" t="n">
+        <v>53.27</v>
+      </c>
+      <c r="K853" t="n">
+        <v>318.91</v>
+      </c>
+      <c r="L853" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="M853" t="n">
+        <v>5.529999999999999</v>
+      </c>
+      <c r="N853" t="n">
+        <v>15.33</v>
+      </c>
     </row>
     <row r="854">
       <c r="A854" s="2" t="n">
@@ -39136,6 +39916,21 @@
       <c r="I854" t="n">
         <v>257.4</v>
       </c>
+      <c r="J854" t="n">
+        <v>49.54</v>
+      </c>
+      <c r="K854" t="n">
+        <v>227</v>
+      </c>
+      <c r="L854" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="M854" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="N854" t="n">
+        <v>7.43</v>
+      </c>
     </row>
     <row r="855">
       <c r="A855" s="2" t="n">
@@ -39165,6 +39960,21 @@
       <c r="I855" t="n">
         <v>274.5</v>
       </c>
+      <c r="J855" t="n">
+        <v>50.92</v>
+      </c>
+      <c r="K855" t="n">
+        <v>434.27</v>
+      </c>
+      <c r="L855" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M855" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="N855" t="n">
+        <v>24.26</v>
+      </c>
     </row>
     <row r="856">
       <c r="A856" s="2" t="n">
@@ -39194,6 +40004,21 @@
       <c r="I856" t="n">
         <v>165.6</v>
       </c>
+      <c r="J856" t="n">
+        <v>43.55</v>
+      </c>
+      <c r="K856" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="L856" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="M856" t="n">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="N856" t="n">
+        <v>9.440000000000001</v>
+      </c>
     </row>
     <row r="857">
       <c r="A857" s="2" t="n">
@@ -39221,6 +40046,21 @@
       <c r="I857" t="n">
         <v>182.7</v>
       </c>
+      <c r="J857" t="n">
+        <v>33.25</v>
+      </c>
+      <c r="K857" t="n">
+        <v>252.21</v>
+      </c>
+      <c r="L857" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="M857" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="N857" t="n">
+        <v>7.32</v>
+      </c>
     </row>
     <row r="858">
       <c r="A858" s="2" t="n">
@@ -39254,6 +40094,21 @@
       <c r="I858" t="n">
         <v>106.2</v>
       </c>
+      <c r="J858" t="n">
+        <v>50.92</v>
+      </c>
+      <c r="K858" t="n">
+        <v>434.27</v>
+      </c>
+      <c r="L858" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M858" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="N858" t="n">
+        <v>24.26</v>
+      </c>
     </row>
     <row r="859">
       <c r="A859" s="2" t="n">
@@ -39281,6 +40136,21 @@
       <c r="I859" t="n">
         <v>90.89999999999999</v>
       </c>
+      <c r="J859" t="n">
+        <v>68.70999999999999</v>
+      </c>
+      <c r="K859" t="n">
+        <v>639.9699999999999</v>
+      </c>
+      <c r="L859" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="M859" t="n">
+        <v>28.26</v>
+      </c>
+      <c r="N859" t="n">
+        <v>27.75</v>
+      </c>
     </row>
     <row r="860">
       <c r="A860" s="2" t="n">
@@ -39308,6 +40178,21 @@
       <c r="I860" t="n">
         <v>174.15</v>
       </c>
+      <c r="J860" t="n">
+        <v>54.36</v>
+      </c>
+      <c r="K860" t="n">
+        <v>372.8</v>
+      </c>
+      <c r="L860" t="n">
+        <v>9.200000000000001</v>
+      </c>
+      <c r="M860" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="N860" t="n">
+        <v>22.2</v>
+      </c>
     </row>
     <row r="861">
       <c r="A861" s="2" t="n">
@@ -39337,6 +40222,21 @@
       <c r="I861" t="n">
         <v>234.45</v>
       </c>
+      <c r="J861" t="n">
+        <v>51.29</v>
+      </c>
+      <c r="K861" t="n">
+        <v>455.27</v>
+      </c>
+      <c r="L861" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M861" t="n">
+        <v>16.43</v>
+      </c>
+      <c r="N861" t="n">
+        <v>24.39</v>
+      </c>
     </row>
     <row r="862">
       <c r="A862" s="2" t="n">
@@ -39365,6 +40265,21 @@
       <c r="I862" t="n">
         <v>141.3</v>
       </c>
+      <c r="J862" t="n">
+        <v>47.82</v>
+      </c>
+      <c r="K862" t="n">
+        <v>340.3</v>
+      </c>
+      <c r="L862" t="n">
+        <v>7</v>
+      </c>
+      <c r="M862" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="N862" t="n">
+        <v>20.77</v>
+      </c>
     </row>
     <row r="863">
       <c r="A863" s="2" t="n">
@@ -39394,6 +40309,21 @@
       <c r="I863" t="n">
         <v>180.9</v>
       </c>
+      <c r="J863" t="n">
+        <v>132.58</v>
+      </c>
+      <c r="K863" t="n">
+        <v>954.3299999999999</v>
+      </c>
+      <c r="L863" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M863" t="n">
+        <v>41.85</v>
+      </c>
+      <c r="N863" t="n">
+        <v>15.95</v>
+      </c>
     </row>
     <row r="864">
       <c r="A864" s="2" t="n">
@@ -39428,6 +40358,21 @@
       <c r="I864" t="n">
         <v>122.85</v>
       </c>
+      <c r="J864" t="n">
+        <v>70.01000000000001</v>
+      </c>
+      <c r="K864" t="n">
+        <v>551.2</v>
+      </c>
+      <c r="L864" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M864" t="n">
+        <v>16.52</v>
+      </c>
+      <c r="N864" t="n">
+        <v>28.99</v>
+      </c>
     </row>
     <row r="865">
       <c r="A865" s="2" t="n">
@@ -39457,6 +40402,21 @@
       <c r="I865" t="n">
         <v>153.45</v>
       </c>
+      <c r="J865" t="n">
+        <v>33.73</v>
+      </c>
+      <c r="K865" t="n">
+        <v>290.5</v>
+      </c>
+      <c r="L865" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="M865" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="N865" t="n">
+        <v>31.79</v>
+      </c>
     </row>
     <row r="866">
       <c r="A866" s="2" t="n">
@@ -39489,6 +40449,21 @@
       <c r="I866" t="n">
         <v>264.6</v>
       </c>
+      <c r="J866" t="n">
+        <v>86.86999999999999</v>
+      </c>
+      <c r="K866" t="n">
+        <v>599.41</v>
+      </c>
+      <c r="L866" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="M866" t="n">
+        <v>14.86</v>
+      </c>
+      <c r="N866" t="n">
+        <v>28.07</v>
+      </c>
     </row>
     <row r="867">
       <c r="A867" s="2" t="n">
@@ -39523,6 +40498,21 @@
       <c r="I867" t="n">
         <v>238.5</v>
       </c>
+      <c r="J867" t="n">
+        <v>31.36</v>
+      </c>
+      <c r="K867" t="n">
+        <v>335.4</v>
+      </c>
+      <c r="L867" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="M867" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="N867" t="n">
+        <v>25.42</v>
+      </c>
     </row>
     <row r="868">
       <c r="A868" s="2" t="n">
@@ -39550,6 +40540,21 @@
       <c r="I868" t="n">
         <v>196.65</v>
       </c>
+      <c r="J868" t="n">
+        <v>21.98</v>
+      </c>
+      <c r="K868" t="n">
+        <v>486.37</v>
+      </c>
+      <c r="L868" t="n">
+        <v>4.890000000000001</v>
+      </c>
+      <c r="M868" t="n">
+        <v>24.93999999999999</v>
+      </c>
+      <c r="N868" t="n">
+        <v>44.38</v>
+      </c>
     </row>
     <row r="869">
       <c r="A869" s="2" t="n">
@@ -39582,6 +40587,21 @@
       <c r="I869" t="n">
         <v>124.2</v>
       </c>
+      <c r="J869" t="n">
+        <v>106.88</v>
+      </c>
+      <c r="K869" t="n">
+        <v>642.7800000000001</v>
+      </c>
+      <c r="L869" t="n">
+        <v>14.36</v>
+      </c>
+      <c r="M869" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="N869" t="n">
+        <v>32.18</v>
+      </c>
     </row>
     <row r="870">
       <c r="A870" s="2" t="n">
@@ -39616,6 +40636,21 @@
       <c r="I870" t="n">
         <v>188.55</v>
       </c>
+      <c r="J870" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="K870" t="n">
+        <v>778.98</v>
+      </c>
+      <c r="L870" t="n">
+        <v>24.66</v>
+      </c>
+      <c r="M870" t="n">
+        <v>29.57</v>
+      </c>
+      <c r="N870" t="n">
+        <v>65.68000000000001</v>
+      </c>
     </row>
     <row r="871">
       <c r="A871" s="2" t="n">
@@ -39645,6 +40680,21 @@
       <c r="I871" t="n">
         <v>165.6</v>
       </c>
+      <c r="J871" t="n">
+        <v>77.89999999999999</v>
+      </c>
+      <c r="K871" t="n">
+        <v>464.8699999999999</v>
+      </c>
+      <c r="L871" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="M871" t="n">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="N871" t="n">
+        <v>21.25</v>
+      </c>
     </row>
     <row r="872">
       <c r="A872" s="2" t="n">
@@ -39677,6 +40727,21 @@
       <c r="I872" t="n">
         <v>242.1</v>
       </c>
+      <c r="J872" t="n">
+        <v>24.66</v>
+      </c>
+      <c r="K872" t="n">
+        <v>1025.57</v>
+      </c>
+      <c r="L872" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="M872" t="n">
+        <v>22.41</v>
+      </c>
+      <c r="N872" t="n">
+        <v>169.01</v>
+      </c>
     </row>
     <row r="873">
       <c r="A873" s="2" t="n">
@@ -39711,6 +40776,21 @@
       <c r="I873" t="n">
         <v>215.55</v>
       </c>
+      <c r="J873" t="n">
+        <v>41.96</v>
+      </c>
+      <c r="K873" t="n">
+        <v>665.22</v>
+      </c>
+      <c r="L873" t="n">
+        <v>13.73</v>
+      </c>
+      <c r="M873" t="n">
+        <v>21.45</v>
+      </c>
+      <c r="N873" t="n">
+        <v>74.33000000000001</v>
+      </c>
     </row>
     <row r="874">
       <c r="A874" s="2" t="n">
@@ -39738,6 +40818,21 @@
       <c r="I874" t="n">
         <v>261.45</v>
       </c>
+      <c r="J874" t="n">
+        <v>83.48</v>
+      </c>
+      <c r="K874" t="n">
+        <v>1263.8</v>
+      </c>
+      <c r="L874" t="n">
+        <v>25.59</v>
+      </c>
+      <c r="M874" t="n">
+        <v>51.29999999999999</v>
+      </c>
+      <c r="N874" t="n">
+        <v>118.62</v>
+      </c>
     </row>
     <row r="875">
       <c r="A875" s="2" t="n">
@@ -39767,6 +40862,21 @@
       <c r="I875" t="n">
         <v>234.9</v>
       </c>
+      <c r="J875" t="n">
+        <v>20.59</v>
+      </c>
+      <c r="K875" t="n">
+        <v>1076.01</v>
+      </c>
+      <c r="L875" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="M875" t="n">
+        <v>38.22</v>
+      </c>
+      <c r="N875" t="n">
+        <v>158.95</v>
+      </c>
     </row>
     <row r="876">
       <c r="A876" s="2" t="n">
@@ -39798,6 +40908,21 @@
       </c>
       <c r="I876" t="n">
         <v>207.9</v>
+      </c>
+      <c r="J876" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="K876" t="n">
+        <v>483.56</v>
+      </c>
+      <c r="L876" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="M876" t="n">
+        <v>25.76</v>
+      </c>
+      <c r="N876" t="n">
+        <v>54.23</v>
       </c>
     </row>
     <row r="877">
@@ -39828,6 +40953,21 @@
       </c>
       <c r="I877" t="n">
         <v>121.5</v>
+      </c>
+      <c r="J877" t="n">
+        <v>58.93</v>
+      </c>
+      <c r="K877" t="n">
+        <v>730.1</v>
+      </c>
+      <c r="L877" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M877" t="n">
+        <v>39.09999999999999</v>
+      </c>
+      <c r="N877" t="n">
+        <v>34.16</v>
       </c>
     </row>
     <row r="878">
@@ -39859,6 +40999,21 @@
       </c>
       <c r="I878" t="n">
         <v>193.95</v>
+      </c>
+      <c r="J878" t="n">
+        <v>22.16</v>
+      </c>
+      <c r="K878" t="n">
+        <v>605.58</v>
+      </c>
+      <c r="L878" t="n">
+        <v>7.199999999999999</v>
+      </c>
+      <c r="M878" t="n">
+        <v>19.23999999999999</v>
+      </c>
+      <c r="N878" t="n">
+        <v>81.74000000000001</v>
       </c>
     </row>
     <row r="879">
@@ -39892,6 +41047,21 @@
       <c r="I879" t="n">
         <v>90.44999999999999</v>
       </c>
+      <c r="J879" t="n">
+        <v>61.88</v>
+      </c>
+      <c r="K879" t="n">
+        <v>474.0500000000001</v>
+      </c>
+      <c r="L879" t="n">
+        <v>14.54</v>
+      </c>
+      <c r="M879" t="n">
+        <v>14.83</v>
+      </c>
+      <c r="N879" t="n">
+        <v>29.1</v>
+      </c>
     </row>
     <row r="880">
       <c r="A880" s="2" t="n">
@@ -39922,6 +41092,21 @@
       <c r="I880" t="n">
         <v>136.35</v>
       </c>
+      <c r="J880" t="n">
+        <v>13.81</v>
+      </c>
+      <c r="K880" t="n">
+        <v>52</v>
+      </c>
+      <c r="L880" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M880" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="N880" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="881">
       <c r="A881" s="2" t="n">
@@ -39950,6 +41135,21 @@
       </c>
       <c r="I881" t="n">
         <v>113.85</v>
+      </c>
+      <c r="J881" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="K881" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="L881" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M881" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="N881" t="n">
+        <v>5.14</v>
       </c>
     </row>
     <row r="882">
@@ -39981,6 +41181,21 @@
       <c r="I882" t="n">
         <v>115.65</v>
       </c>
+      <c r="J882" t="n">
+        <v>49.81</v>
+      </c>
+      <c r="K882" t="n">
+        <v>410.93</v>
+      </c>
+      <c r="L882" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="M882" t="n">
+        <v>13.24</v>
+      </c>
+      <c r="N882" t="n">
+        <v>22.86</v>
+      </c>
     </row>
     <row r="883">
       <c r="A883" s="2" t="n">
@@ -40010,6 +41225,21 @@
       </c>
       <c r="I883" t="n">
         <v>102.6</v>
+      </c>
+      <c r="J883" t="n">
+        <v>26.65</v>
+      </c>
+      <c r="K883" t="n">
+        <v>607.3899999999999</v>
+      </c>
+      <c r="L883" t="n">
+        <v>7.399999999999999</v>
+      </c>
+      <c r="M883" t="n">
+        <v>29.51</v>
+      </c>
+      <c r="N883" t="n">
+        <v>57.37</v>
       </c>
     </row>
     <row r="884">
@@ -40042,6 +41272,21 @@
       <c r="I884" t="n">
         <v>103.5</v>
       </c>
+      <c r="J884" t="n">
+        <v>53.13</v>
+      </c>
+      <c r="K884" t="n">
+        <v>1625.06</v>
+      </c>
+      <c r="L884" t="n">
+        <v>21.05</v>
+      </c>
+      <c r="M884" t="n">
+        <v>131.26</v>
+      </c>
+      <c r="N884" t="n">
+        <v>82.44</v>
+      </c>
     </row>
     <row r="885">
       <c r="A885" s="2" t="n">
@@ -40072,6 +41317,21 @@
       <c r="I885" t="n">
         <v>98.10000000000001</v>
       </c>
+      <c r="J885" t="n">
+        <v>42.46</v>
+      </c>
+      <c r="K885" t="n">
+        <v>374.3099999999999</v>
+      </c>
+      <c r="L885" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M885" t="n">
+        <v>12.81</v>
+      </c>
+      <c r="N885" t="n">
+        <v>21.36</v>
+      </c>
     </row>
     <row r="886">
       <c r="A886" s="2" t="n">
@@ -40101,6 +41361,21 @@
       </c>
       <c r="I886" t="n">
         <v>175.05</v>
+      </c>
+      <c r="J886" t="n">
+        <v>61.88</v>
+      </c>
+      <c r="K886" t="n">
+        <v>474.0500000000001</v>
+      </c>
+      <c r="L886" t="n">
+        <v>14.54</v>
+      </c>
+      <c r="M886" t="n">
+        <v>14.83</v>
+      </c>
+      <c r="N886" t="n">
+        <v>29.1</v>
       </c>
     </row>
     <row r="887">
@@ -40133,6 +41408,21 @@
       <c r="I887" t="n">
         <v>96.30000000000001</v>
       </c>
+      <c r="J887" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="K887" t="n">
+        <v>590.26</v>
+      </c>
+      <c r="L887" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M887" t="n">
+        <v>36.89</v>
+      </c>
+      <c r="N887" t="n">
+        <v>59.59999999999999</v>
+      </c>
     </row>
     <row r="888">
       <c r="A888" s="2" t="n">
@@ -40165,6 +41455,21 @@
       <c r="I888" t="n">
         <v>186.3</v>
       </c>
+      <c r="J888" t="n">
+        <v>30.19</v>
+      </c>
+      <c r="K888" t="n">
+        <v>318.57</v>
+      </c>
+      <c r="L888" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M888" t="n">
+        <v>13.44</v>
+      </c>
+      <c r="N888" t="n">
+        <v>18.47</v>
+      </c>
     </row>
     <row r="889">
       <c r="A889" s="2" t="n">
@@ -40191,6 +41496,21 @@
       </c>
       <c r="I889" t="n">
         <v>172.35</v>
+      </c>
+      <c r="J889" t="n">
+        <v>23.43</v>
+      </c>
+      <c r="K889" t="n">
+        <v>179.5</v>
+      </c>
+      <c r="L889" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="M889" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="N889" t="n">
+        <v>11.15</v>
       </c>
     </row>
     <row r="890">
@@ -40230,6 +41550,21 @@
       <c r="I890" t="n">
         <v>151.2</v>
       </c>
+      <c r="J890" t="n">
+        <v>9.610000000000001</v>
+      </c>
+      <c r="K890" t="n">
+        <v>588.7</v>
+      </c>
+      <c r="L890" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="M890" t="n">
+        <v>35</v>
+      </c>
+      <c r="N890" t="n">
+        <v>58.48</v>
+      </c>
     </row>
     <row r="891">
       <c r="A891" s="2" t="n">
@@ -40264,6 +41599,21 @@
       </c>
       <c r="I891" t="n">
         <v>170.55</v>
+      </c>
+      <c r="J891" t="n">
+        <v>42.46</v>
+      </c>
+      <c r="K891" t="n">
+        <v>374.3099999999999</v>
+      </c>
+      <c r="L891" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M891" t="n">
+        <v>12.81</v>
+      </c>
+      <c r="N891" t="n">
+        <v>21.36</v>
       </c>
     </row>
     <row r="892">
@@ -40300,6 +41650,21 @@
       </c>
       <c r="I892" t="n">
         <v>159.3</v>
+      </c>
+      <c r="J892" t="n">
+        <v>14.81</v>
+      </c>
+      <c r="K892" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="L892" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="M892" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="N892" t="n">
+        <v>4.140000000000001</v>
       </c>
     </row>
     <row r="893">

--- a/Data Cleaning/nutritionixAPI/withNutrients.xlsx
+++ b/Data Cleaning/nutritionixAPI/withNutrients.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3420" yWindow="500" windowWidth="21960" windowHeight="17500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -37575,21 +37575,6 @@
       <c r="I802" t="n">
         <v>113.85</v>
       </c>
-      <c r="J802" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="K802" t="n">
-        <v>502.5</v>
-      </c>
-      <c r="L802" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="M802" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="N802" t="n">
-        <v>29.19</v>
-      </c>
     </row>
     <row r="803">
       <c r="A803" s="2" t="n">
@@ -37626,21 +37611,6 @@
       <c r="I803" t="n">
         <v>124.65</v>
       </c>
-      <c r="J803" t="n">
-        <v>68.15000000000001</v>
-      </c>
-      <c r="K803" t="n">
-        <v>830.01</v>
-      </c>
-      <c r="L803" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="M803" t="n">
-        <v>16.09</v>
-      </c>
-      <c r="N803" t="n">
-        <v>57.13</v>
-      </c>
     </row>
     <row r="804">
       <c r="A804" s="2" t="n">
@@ -37676,21 +37646,6 @@
       <c r="I804" t="n">
         <v>87.75000000000001</v>
       </c>
-      <c r="J804" t="n">
-        <v>58.17</v>
-      </c>
-      <c r="K804" t="n">
-        <v>526.8</v>
-      </c>
-      <c r="L804" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="M804" t="n">
-        <v>22.02</v>
-      </c>
-      <c r="N804" t="n">
-        <v>25.92</v>
-      </c>
     </row>
     <row r="805">
       <c r="A805" s="2" t="n">
@@ -37725,21 +37680,6 @@
       </c>
       <c r="I805" t="n">
         <v>82.35000000000001</v>
-      </c>
-      <c r="J805" t="n">
-        <v>30.85</v>
-      </c>
-      <c r="K805" t="n">
-        <v>360.71</v>
-      </c>
-      <c r="L805" t="n">
-        <v>6.850000000000001</v>
-      </c>
-      <c r="M805" t="n">
-        <v>12.63</v>
-      </c>
-      <c r="N805" t="n">
-        <v>12.75</v>
       </c>
     </row>
     <row r="806">
@@ -37777,21 +37717,6 @@
       <c r="I806" t="n">
         <v>100.8</v>
       </c>
-      <c r="J806" t="n">
-        <v>125.01</v>
-      </c>
-      <c r="K806" t="n">
-        <v>1489.24</v>
-      </c>
-      <c r="L806" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="M806" t="n">
-        <v>58.78</v>
-      </c>
-      <c r="N806" t="n">
-        <v>69.95</v>
-      </c>
     </row>
     <row r="807">
       <c r="A807" s="2" t="n">
@@ -37825,21 +37750,6 @@
       </c>
       <c r="I807" t="n">
         <v>109.8</v>
-      </c>
-      <c r="J807" t="n">
-        <v>57.79</v>
-      </c>
-      <c r="K807" t="n">
-        <v>403.2</v>
-      </c>
-      <c r="L807" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="M807" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="N807" t="n">
-        <v>21.13</v>
       </c>
     </row>
     <row r="808">
@@ -37875,21 +37785,6 @@
       </c>
       <c r="I808" t="n">
         <v>116.1</v>
-      </c>
-      <c r="J808" t="n">
-        <v>64.54000000000001</v>
-      </c>
-      <c r="K808" t="n">
-        <v>499.49</v>
-      </c>
-      <c r="L808" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="M808" t="n">
-        <v>9.85</v>
-      </c>
-      <c r="N808" t="n">
-        <v>17.82</v>
       </c>
     </row>
     <row r="809">
@@ -37927,21 +37822,6 @@
       <c r="I809" t="n">
         <v>114.75</v>
       </c>
-      <c r="J809" t="n">
-        <v>46.27</v>
-      </c>
-      <c r="K809" t="n">
-        <v>627.83</v>
-      </c>
-      <c r="L809" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="M809" t="n">
-        <v>25.94</v>
-      </c>
-      <c r="N809" t="n">
-        <v>30.95</v>
-      </c>
     </row>
     <row r="810">
       <c r="A810" s="2" t="n">
@@ -37975,21 +37855,6 @@
       </c>
       <c r="I810" t="n">
         <v>98.09999999999999</v>
-      </c>
-      <c r="J810" t="n">
-        <v>57.79</v>
-      </c>
-      <c r="K810" t="n">
-        <v>403.2</v>
-      </c>
-      <c r="L810" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="M810" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="N810" t="n">
-        <v>21.13</v>
       </c>
     </row>
     <row r="811">
@@ -38025,21 +37890,6 @@
       </c>
       <c r="I811" t="n">
         <v>89.09999999999999</v>
-      </c>
-      <c r="J811" t="n">
-        <v>88.28</v>
-      </c>
-      <c r="K811" t="n">
-        <v>572.3299999999999</v>
-      </c>
-      <c r="L811" t="n">
-        <v>11.47</v>
-      </c>
-      <c r="M811" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="N811" t="n">
-        <v>44.75999999999999</v>
       </c>
     </row>
     <row r="812">
@@ -38077,21 +37927,6 @@
       <c r="I812" t="n">
         <v>108</v>
       </c>
-      <c r="J812" t="n">
-        <v>66.23999999999999</v>
-      </c>
-      <c r="K812" t="n">
-        <v>581.99</v>
-      </c>
-      <c r="L812" t="n">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="M812" t="n">
-        <v>13.97</v>
-      </c>
-      <c r="N812" t="n">
-        <v>47.74999999999999</v>
-      </c>
     </row>
     <row r="813">
       <c r="A813" s="2" t="n">
@@ -38125,21 +37960,6 @@
       </c>
       <c r="I813" t="n">
         <v>93.59999999999999</v>
-      </c>
-      <c r="J813" t="n">
-        <v>57.79</v>
-      </c>
-      <c r="K813" t="n">
-        <v>403.2</v>
-      </c>
-      <c r="L813" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="M813" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="N813" t="n">
-        <v>21.13</v>
       </c>
     </row>
     <row r="814">
@@ -38175,21 +37995,6 @@
       </c>
       <c r="I814" t="n">
         <v>93.59999999999999</v>
-      </c>
-      <c r="J814" t="n">
-        <v>18.66</v>
-      </c>
-      <c r="K814" t="n">
-        <v>305</v>
-      </c>
-      <c r="L814" t="n">
-        <v>0.8400000000000001</v>
-      </c>
-      <c r="M814" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="N814" t="n">
-        <v>47.34</v>
       </c>
     </row>
     <row r="815">
@@ -38227,21 +38032,6 @@
       <c r="I815" t="n">
         <v>104.85</v>
       </c>
-      <c r="J815" t="n">
-        <v>42.73</v>
-      </c>
-      <c r="K815" t="n">
-        <v>741.29</v>
-      </c>
-      <c r="L815" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="M815" t="n">
-        <v>29.74</v>
-      </c>
-      <c r="N815" t="n">
-        <v>51.67000000000001</v>
-      </c>
     </row>
     <row r="816">
       <c r="A816" s="2" t="n">
@@ -38272,21 +38062,6 @@
       <c r="I816" t="n">
         <v>155.7</v>
       </c>
-      <c r="J816" t="n">
-        <v>36.72</v>
-      </c>
-      <c r="K816" t="n">
-        <v>392.5</v>
-      </c>
-      <c r="L816" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="M816" t="n">
-        <v>13.47</v>
-      </c>
-      <c r="N816" t="n">
-        <v>29.2</v>
-      </c>
     </row>
     <row r="817">
       <c r="A817" s="2" t="n">
@@ -38315,21 +38090,6 @@
       <c r="I817" t="n">
         <v>284.4</v>
       </c>
-      <c r="J817" t="n">
-        <v>75.73</v>
-      </c>
-      <c r="K817" t="n">
-        <v>424.24</v>
-      </c>
-      <c r="L817" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="M817" t="n">
-        <v>8.209999999999999</v>
-      </c>
-      <c r="N817" t="n">
-        <v>14.14</v>
-      </c>
     </row>
     <row r="818">
       <c r="A818" s="2" t="n">
@@ -38358,21 +38118,6 @@
       <c r="I818" t="n">
         <v>159.3</v>
       </c>
-      <c r="J818" t="n">
-        <v>44.98</v>
-      </c>
-      <c r="K818" t="n">
-        <v>945.5</v>
-      </c>
-      <c r="L818" t="n">
-        <v>17</v>
-      </c>
-      <c r="M818" t="n">
-        <v>74.64</v>
-      </c>
-      <c r="N818" t="n">
-        <v>39.39</v>
-      </c>
     </row>
     <row r="819">
       <c r="A819" s="2" t="n">
@@ -38401,21 +38146,6 @@
       </c>
       <c r="I819" t="n">
         <v>257.85</v>
-      </c>
-      <c r="J819" t="n">
-        <v>29.86</v>
-      </c>
-      <c r="K819" t="n">
-        <v>674.05</v>
-      </c>
-      <c r="L819" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="M819" t="n">
-        <v>42.21999999999999</v>
-      </c>
-      <c r="N819" t="n">
-        <v>41.34</v>
       </c>
     </row>
     <row r="820">
@@ -38447,21 +38177,6 @@
       <c r="I820" t="n">
         <v>154.8</v>
       </c>
-      <c r="J820" t="n">
-        <v>29.96</v>
-      </c>
-      <c r="K820" t="n">
-        <v>141</v>
-      </c>
-      <c r="L820" t="n">
-        <v>4.649999999999999</v>
-      </c>
-      <c r="M820" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="N820" t="n">
-        <v>5.02</v>
-      </c>
     </row>
     <row r="821">
       <c r="A821" s="2" t="n">
@@ -38490,21 +38205,6 @@
       <c r="I821" t="n">
         <v>119.7</v>
       </c>
-      <c r="J821" t="n">
-        <v>54.92</v>
-      </c>
-      <c r="K821" t="n">
-        <v>471</v>
-      </c>
-      <c r="L821" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M821" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="N821" t="n">
-        <v>25.45</v>
-      </c>
     </row>
     <row r="822">
       <c r="A822" s="2" t="n">
@@ -38532,21 +38232,6 @@
       <c r="I822" t="n">
         <v>254.25</v>
       </c>
-      <c r="J822" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="K822" t="n">
-        <v>364.65</v>
-      </c>
-      <c r="L822" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="M822" t="n">
-        <v>12.55</v>
-      </c>
-      <c r="N822" t="n">
-        <v>19.72</v>
-      </c>
     </row>
     <row r="823">
       <c r="A823" s="2" t="n">
@@ -38575,21 +38260,6 @@
       <c r="I823" t="n">
         <v>211.95</v>
       </c>
-      <c r="J823" t="n">
-        <v>46.98</v>
-      </c>
-      <c r="K823" t="n">
-        <v>813.73</v>
-      </c>
-      <c r="L823" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="M823" t="n">
-        <v>36.83</v>
-      </c>
-      <c r="N823" t="n">
-        <v>68.18000000000001</v>
-      </c>
     </row>
     <row r="824">
       <c r="A824" s="2" t="n">
@@ -38618,21 +38288,6 @@
       <c r="I824" t="n">
         <v>186.75</v>
       </c>
-      <c r="J824" t="n">
-        <v>45.03</v>
-      </c>
-      <c r="K824" t="n">
-        <v>439.35</v>
-      </c>
-      <c r="L824" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="M824" t="n">
-        <v>5.089999999999999</v>
-      </c>
-      <c r="N824" t="n">
-        <v>52.82</v>
-      </c>
     </row>
     <row r="825">
       <c r="A825" s="2" t="n">
@@ -38659,21 +38314,6 @@
       </c>
       <c r="I825" t="n">
         <v>260.1</v>
-      </c>
-      <c r="J825" t="n">
-        <v>46</v>
-      </c>
-      <c r="K825" t="n">
-        <v>273</v>
-      </c>
-      <c r="L825" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="M825" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="N825" t="n">
-        <v>8.6</v>
       </c>
     </row>
     <row r="826">
@@ -38705,21 +38345,6 @@
       <c r="I826" t="n">
         <v>238.95</v>
       </c>
-      <c r="J826" t="n">
-        <v>59.65</v>
-      </c>
-      <c r="K826" t="n">
-        <v>968.67</v>
-      </c>
-      <c r="L826" t="n">
-        <v>5.720000000000001</v>
-      </c>
-      <c r="M826" t="n">
-        <v>56.04000000000001</v>
-      </c>
-      <c r="N826" t="n">
-        <v>53.89999999999999</v>
-      </c>
     </row>
     <row r="827">
       <c r="A827" s="2" t="n">
@@ -38747,21 +38372,6 @@
       <c r="I827" t="n">
         <v>252.9</v>
       </c>
-      <c r="J827" t="n">
-        <v>46</v>
-      </c>
-      <c r="K827" t="n">
-        <v>273</v>
-      </c>
-      <c r="L827" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="M827" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="N827" t="n">
-        <v>8.6</v>
-      </c>
     </row>
     <row r="828">
       <c r="A828" s="2" t="n">
@@ -38790,21 +38400,6 @@
       <c r="I828" t="n">
         <v>210.15</v>
       </c>
-      <c r="J828" t="n">
-        <v>27.68</v>
-      </c>
-      <c r="K828" t="n">
-        <v>130</v>
-      </c>
-      <c r="L828" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="M828" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="N828" t="n">
-        <v>3.45</v>
-      </c>
     </row>
     <row r="829">
       <c r="A829" s="2" t="n">
@@ -38833,21 +38428,6 @@
       <c r="I829" t="n">
         <v>226.8</v>
       </c>
-      <c r="J829" t="n">
-        <v>27.68</v>
-      </c>
-      <c r="K829" t="n">
-        <v>130</v>
-      </c>
-      <c r="L829" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="M829" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="N829" t="n">
-        <v>3.45</v>
-      </c>
     </row>
     <row r="830">
       <c r="A830" s="2" t="n">
@@ -38876,21 +38456,6 @@
       <c r="I830" t="n">
         <v>266.85</v>
       </c>
-      <c r="J830" t="n">
-        <v>27.68</v>
-      </c>
-      <c r="K830" t="n">
-        <v>130</v>
-      </c>
-      <c r="L830" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="M830" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="N830" t="n">
-        <v>3.45</v>
-      </c>
     </row>
     <row r="831">
       <c r="A831" s="2" t="n">
@@ -38919,21 +38484,6 @@
       <c r="I831" t="n">
         <v>163.35</v>
       </c>
-      <c r="J831" t="n">
-        <v>27.68</v>
-      </c>
-      <c r="K831" t="n">
-        <v>130</v>
-      </c>
-      <c r="L831" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="M831" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="N831" t="n">
-        <v>3.45</v>
-      </c>
     </row>
     <row r="832">
       <c r="A832" s="2" t="n">
@@ -38961,21 +38511,6 @@
       <c r="I832" t="n">
         <v>266.4</v>
       </c>
-      <c r="J832" t="n">
-        <v>12.36</v>
-      </c>
-      <c r="K832" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="L832" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="M832" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="N832" t="n">
-        <v>2.21</v>
-      </c>
     </row>
     <row r="833">
       <c r="A833" s="2" t="n">
@@ -39005,21 +38540,6 @@
       <c r="I833" t="n">
         <v>260.55</v>
       </c>
-      <c r="J833" t="n">
-        <v>85.35999999999999</v>
-      </c>
-      <c r="K833" t="n">
-        <v>752.25</v>
-      </c>
-      <c r="L833" t="n">
-        <v>21.55</v>
-      </c>
-      <c r="M833" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="N833" t="n">
-        <v>46.79000000000001</v>
-      </c>
     </row>
     <row r="834">
       <c r="A834" s="2" t="n">
@@ -39048,21 +38568,6 @@
       <c r="I834" t="n">
         <v>157.5</v>
       </c>
-      <c r="J834" t="n">
-        <v>23.04</v>
-      </c>
-      <c r="K834" t="n">
-        <v>320.51</v>
-      </c>
-      <c r="L834" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="M834" t="n">
-        <v>13.05</v>
-      </c>
-      <c r="N834" t="n">
-        <v>24.98</v>
-      </c>
     </row>
     <row r="835">
       <c r="A835" s="2" t="n">
@@ -39090,21 +38595,6 @@
       <c r="I835" t="n">
         <v>188.55</v>
       </c>
-      <c r="J835" t="n">
-        <v>12.48</v>
-      </c>
-      <c r="K835" t="n">
-        <v>329.47</v>
-      </c>
-      <c r="L835" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="M835" t="n">
-        <v>15.24</v>
-      </c>
-      <c r="N835" t="n">
-        <v>33.27</v>
-      </c>
     </row>
     <row r="836">
       <c r="A836" s="2" t="n">
@@ -39133,21 +38623,6 @@
       <c r="I836" t="n">
         <v>179.55</v>
       </c>
-      <c r="J836" t="n">
-        <v>23.94</v>
-      </c>
-      <c r="K836" t="n">
-        <v>546.5</v>
-      </c>
-      <c r="L836" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="M836" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="N836" t="n">
-        <v>70.36</v>
-      </c>
     </row>
     <row r="837">
       <c r="A837" s="2" t="n">
@@ -39175,21 +38650,6 @@
       <c r="I837" t="n">
         <v>264.15</v>
       </c>
-      <c r="J837" t="n">
-        <v>46</v>
-      </c>
-      <c r="K837" t="n">
-        <v>273</v>
-      </c>
-      <c r="L837" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="M837" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="N837" t="n">
-        <v>8.6</v>
-      </c>
     </row>
     <row r="838">
       <c r="A838" s="2" t="n">
@@ -39219,21 +38679,6 @@
       <c r="I838" t="n">
         <v>184.95</v>
       </c>
-      <c r="J838" t="n">
-        <v>41.26000000000001</v>
-      </c>
-      <c r="K838" t="n">
-        <v>387</v>
-      </c>
-      <c r="L838" t="n">
-        <v>4.800000000000001</v>
-      </c>
-      <c r="M838" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="N838" t="n">
-        <v>44.77999999999999</v>
-      </c>
     </row>
     <row r="839">
       <c r="A839" s="2" t="n">
@@ -39260,21 +38705,6 @@
       </c>
       <c r="I839" t="n">
         <v>248.4</v>
-      </c>
-      <c r="J839" t="n">
-        <v>30.86</v>
-      </c>
-      <c r="K839" t="n">
-        <v>158</v>
-      </c>
-      <c r="L839" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="M839" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="N839" t="n">
-        <v>5.8</v>
       </c>
     </row>
     <row r="840">
@@ -39306,21 +38736,6 @@
       <c r="I840" t="n">
         <v>191.7</v>
       </c>
-      <c r="J840" t="n">
-        <v>41.26000000000001</v>
-      </c>
-      <c r="K840" t="n">
-        <v>660</v>
-      </c>
-      <c r="L840" t="n">
-        <v>4.800000000000001</v>
-      </c>
-      <c r="M840" t="n">
-        <v>31.43</v>
-      </c>
-      <c r="N840" t="n">
-        <v>50.69</v>
-      </c>
     </row>
     <row r="841">
       <c r="A841" s="2" t="n">
@@ -39348,21 +38763,6 @@
       <c r="I841" t="n">
         <v>238.95</v>
       </c>
-      <c r="J841" t="n">
-        <v>45.81</v>
-      </c>
-      <c r="K841" t="n">
-        <v>280.63</v>
-      </c>
-      <c r="L841" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="M841" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="N841" t="n">
-        <v>11.36</v>
-      </c>
     </row>
     <row r="842">
       <c r="A842" s="2" t="n">
@@ -39392,21 +38792,6 @@
       <c r="I842" t="n">
         <v>280.8</v>
       </c>
-      <c r="J842" t="n">
-        <v>86.94999999999999</v>
-      </c>
-      <c r="K842" t="n">
-        <v>636.27</v>
-      </c>
-      <c r="L842" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="M842" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="N842" t="n">
-        <v>19.68</v>
-      </c>
     </row>
     <row r="843">
       <c r="A843" s="2" t="n">
@@ -39434,21 +38819,6 @@
       <c r="I843" t="n">
         <v>405.45</v>
       </c>
-      <c r="J843" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="K843" t="n">
-        <v>45</v>
-      </c>
-      <c r="L843" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M843" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="N843" t="n">
-        <v>0.92</v>
-      </c>
     </row>
     <row r="844">
       <c r="A844" s="2" t="n">
@@ -39478,21 +38848,6 @@
       <c r="I844" t="n">
         <v>181.35</v>
       </c>
-      <c r="J844" t="n">
-        <v>50.92</v>
-      </c>
-      <c r="K844" t="n">
-        <v>434.27</v>
-      </c>
-      <c r="L844" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M844" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="N844" t="n">
-        <v>24.26</v>
-      </c>
     </row>
     <row r="845">
       <c r="A845" s="2" t="n">
@@ -39521,21 +38876,6 @@
       <c r="I845" t="n">
         <v>161.55</v>
       </c>
-      <c r="J845" t="n">
-        <v>38.19</v>
-      </c>
-      <c r="K845" t="n">
-        <v>463.0700000000001</v>
-      </c>
-      <c r="L845" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="M845" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="N845" t="n">
-        <v>33.52</v>
-      </c>
     </row>
     <row r="846">
       <c r="A846" s="2" t="n">
@@ -39565,21 +38905,6 @@
       <c r="I846" t="n">
         <v>209.25</v>
       </c>
-      <c r="J846" t="n">
-        <v>35.08</v>
-      </c>
-      <c r="K846" t="n">
-        <v>345.7</v>
-      </c>
-      <c r="L846" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="M846" t="n">
-        <v>9.639999999999999</v>
-      </c>
-      <c r="N846" t="n">
-        <v>27.87</v>
-      </c>
     </row>
     <row r="847">
       <c r="A847" s="2" t="n">
@@ -39609,21 +38934,6 @@
       <c r="I847" t="n">
         <v>228.6</v>
       </c>
-      <c r="J847" t="n">
-        <v>44.21</v>
-      </c>
-      <c r="K847" t="n">
-        <v>344.41</v>
-      </c>
-      <c r="L847" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M847" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="N847" t="n">
-        <v>19.91</v>
-      </c>
     </row>
     <row r="848">
       <c r="A848" s="2" t="n">
@@ -39653,21 +38963,6 @@
       <c r="I848" t="n">
         <v>177.3</v>
       </c>
-      <c r="J848" t="n">
-        <v>89.59</v>
-      </c>
-      <c r="K848" t="n">
-        <v>542</v>
-      </c>
-      <c r="L848" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="M848" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="N848" t="n">
-        <v>24.21</v>
-      </c>
     </row>
     <row r="849">
       <c r="A849" s="2" t="n">
@@ -39697,21 +38992,6 @@
       <c r="I849" t="n">
         <v>170.55</v>
       </c>
-      <c r="J849" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="K849" t="n">
-        <v>337</v>
-      </c>
-      <c r="L849" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M849" t="n">
-        <v>3.399999999999999</v>
-      </c>
-      <c r="N849" t="n">
-        <v>31.74</v>
-      </c>
     </row>
     <row r="850">
       <c r="A850" s="2" t="n">
@@ -39741,21 +39021,6 @@
       <c r="I850" t="n">
         <v>173.25</v>
       </c>
-      <c r="J850" t="n">
-        <v>50.92</v>
-      </c>
-      <c r="K850" t="n">
-        <v>434.27</v>
-      </c>
-      <c r="L850" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M850" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="N850" t="n">
-        <v>24.26</v>
-      </c>
     </row>
     <row r="851">
       <c r="A851" s="2" t="n">
@@ -39784,21 +39049,6 @@
       <c r="I851" t="n">
         <v>115.65</v>
       </c>
-      <c r="J851" t="n">
-        <v>40.27</v>
-      </c>
-      <c r="K851" t="n">
-        <v>195</v>
-      </c>
-      <c r="L851" t="n">
-        <v>9</v>
-      </c>
-      <c r="M851" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="N851" t="n">
-        <v>7.07</v>
-      </c>
     </row>
     <row r="852">
       <c r="A852" s="2" t="n">
@@ -39828,21 +39078,6 @@
       <c r="I852" t="n">
         <v>197.55</v>
       </c>
-      <c r="J852" t="n">
-        <v>57.82</v>
-      </c>
-      <c r="K852" t="n">
-        <v>395.36</v>
-      </c>
-      <c r="L852" t="n">
-        <v>8</v>
-      </c>
-      <c r="M852" t="n">
-        <v>6.000000000000001</v>
-      </c>
-      <c r="N852" t="n">
-        <v>26.84</v>
-      </c>
     </row>
     <row r="853">
       <c r="A853" s="2" t="n">
@@ -39872,21 +39107,6 @@
       <c r="I853" t="n">
         <v>232.65</v>
       </c>
-      <c r="J853" t="n">
-        <v>53.27</v>
-      </c>
-      <c r="K853" t="n">
-        <v>318.91</v>
-      </c>
-      <c r="L853" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="M853" t="n">
-        <v>5.529999999999999</v>
-      </c>
-      <c r="N853" t="n">
-        <v>15.33</v>
-      </c>
     </row>
     <row r="854">
       <c r="A854" s="2" t="n">
@@ -39916,21 +39136,6 @@
       <c r="I854" t="n">
         <v>257.4</v>
       </c>
-      <c r="J854" t="n">
-        <v>49.54</v>
-      </c>
-      <c r="K854" t="n">
-        <v>227</v>
-      </c>
-      <c r="L854" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="M854" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="N854" t="n">
-        <v>7.43</v>
-      </c>
     </row>
     <row r="855">
       <c r="A855" s="2" t="n">
@@ -39960,21 +39165,6 @@
       <c r="I855" t="n">
         <v>274.5</v>
       </c>
-      <c r="J855" t="n">
-        <v>50.92</v>
-      </c>
-      <c r="K855" t="n">
-        <v>434.27</v>
-      </c>
-      <c r="L855" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M855" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="N855" t="n">
-        <v>24.26</v>
-      </c>
     </row>
     <row r="856">
       <c r="A856" s="2" t="n">
@@ -40004,21 +39194,6 @@
       <c r="I856" t="n">
         <v>165.6</v>
       </c>
-      <c r="J856" t="n">
-        <v>43.55</v>
-      </c>
-      <c r="K856" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="L856" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="M856" t="n">
-        <v>0.5700000000000001</v>
-      </c>
-      <c r="N856" t="n">
-        <v>9.440000000000001</v>
-      </c>
     </row>
     <row r="857">
       <c r="A857" s="2" t="n">
@@ -40046,21 +39221,6 @@
       <c r="I857" t="n">
         <v>182.7</v>
       </c>
-      <c r="J857" t="n">
-        <v>33.25</v>
-      </c>
-      <c r="K857" t="n">
-        <v>252.21</v>
-      </c>
-      <c r="L857" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="M857" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="N857" t="n">
-        <v>7.32</v>
-      </c>
     </row>
     <row r="858">
       <c r="A858" s="2" t="n">
@@ -40094,21 +39254,6 @@
       <c r="I858" t="n">
         <v>106.2</v>
       </c>
-      <c r="J858" t="n">
-        <v>50.92</v>
-      </c>
-      <c r="K858" t="n">
-        <v>434.27</v>
-      </c>
-      <c r="L858" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M858" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="N858" t="n">
-        <v>24.26</v>
-      </c>
     </row>
     <row r="859">
       <c r="A859" s="2" t="n">
@@ -40136,21 +39281,6 @@
       <c r="I859" t="n">
         <v>90.89999999999999</v>
       </c>
-      <c r="J859" t="n">
-        <v>68.70999999999999</v>
-      </c>
-      <c r="K859" t="n">
-        <v>639.9699999999999</v>
-      </c>
-      <c r="L859" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="M859" t="n">
-        <v>28.26</v>
-      </c>
-      <c r="N859" t="n">
-        <v>27.75</v>
-      </c>
     </row>
     <row r="860">
       <c r="A860" s="2" t="n">
@@ -40178,21 +39308,6 @@
       <c r="I860" t="n">
         <v>174.15</v>
       </c>
-      <c r="J860" t="n">
-        <v>54.36</v>
-      </c>
-      <c r="K860" t="n">
-        <v>372.8</v>
-      </c>
-      <c r="L860" t="n">
-        <v>9.200000000000001</v>
-      </c>
-      <c r="M860" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="N860" t="n">
-        <v>22.2</v>
-      </c>
     </row>
     <row r="861">
       <c r="A861" s="2" t="n">
@@ -40222,21 +39337,6 @@
       <c r="I861" t="n">
         <v>234.45</v>
       </c>
-      <c r="J861" t="n">
-        <v>51.29</v>
-      </c>
-      <c r="K861" t="n">
-        <v>455.27</v>
-      </c>
-      <c r="L861" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M861" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="N861" t="n">
-        <v>24.39</v>
-      </c>
     </row>
     <row r="862">
       <c r="A862" s="2" t="n">
@@ -40265,21 +39365,6 @@
       <c r="I862" t="n">
         <v>141.3</v>
       </c>
-      <c r="J862" t="n">
-        <v>47.82</v>
-      </c>
-      <c r="K862" t="n">
-        <v>340.3</v>
-      </c>
-      <c r="L862" t="n">
-        <v>7</v>
-      </c>
-      <c r="M862" t="n">
-        <v>6.47</v>
-      </c>
-      <c r="N862" t="n">
-        <v>20.77</v>
-      </c>
     </row>
     <row r="863">
       <c r="A863" s="2" t="n">
@@ -40309,21 +39394,6 @@
       <c r="I863" t="n">
         <v>180.9</v>
       </c>
-      <c r="J863" t="n">
-        <v>132.58</v>
-      </c>
-      <c r="K863" t="n">
-        <v>954.3299999999999</v>
-      </c>
-      <c r="L863" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M863" t="n">
-        <v>41.85</v>
-      </c>
-      <c r="N863" t="n">
-        <v>15.95</v>
-      </c>
     </row>
     <row r="864">
       <c r="A864" s="2" t="n">
@@ -40358,21 +39428,6 @@
       <c r="I864" t="n">
         <v>122.85</v>
       </c>
-      <c r="J864" t="n">
-        <v>70.01000000000001</v>
-      </c>
-      <c r="K864" t="n">
-        <v>551.2</v>
-      </c>
-      <c r="L864" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="M864" t="n">
-        <v>16.52</v>
-      </c>
-      <c r="N864" t="n">
-        <v>28.99</v>
-      </c>
     </row>
     <row r="865">
       <c r="A865" s="2" t="n">
@@ -40402,21 +39457,6 @@
       <c r="I865" t="n">
         <v>153.45</v>
       </c>
-      <c r="J865" t="n">
-        <v>33.73</v>
-      </c>
-      <c r="K865" t="n">
-        <v>290.5</v>
-      </c>
-      <c r="L865" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="M865" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="N865" t="n">
-        <v>31.79</v>
-      </c>
     </row>
     <row r="866">
       <c r="A866" s="2" t="n">
@@ -40449,21 +39489,6 @@
       <c r="I866" t="n">
         <v>264.6</v>
       </c>
-      <c r="J866" t="n">
-        <v>86.86999999999999</v>
-      </c>
-      <c r="K866" t="n">
-        <v>599.41</v>
-      </c>
-      <c r="L866" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="M866" t="n">
-        <v>14.86</v>
-      </c>
-      <c r="N866" t="n">
-        <v>28.07</v>
-      </c>
     </row>
     <row r="867">
       <c r="A867" s="2" t="n">
@@ -40498,21 +39523,6 @@
       <c r="I867" t="n">
         <v>238.5</v>
       </c>
-      <c r="J867" t="n">
-        <v>31.36</v>
-      </c>
-      <c r="K867" t="n">
-        <v>335.4</v>
-      </c>
-      <c r="L867" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="M867" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="N867" t="n">
-        <v>25.42</v>
-      </c>
     </row>
     <row r="868">
       <c r="A868" s="2" t="n">
@@ -40540,21 +39550,6 @@
       <c r="I868" t="n">
         <v>196.65</v>
       </c>
-      <c r="J868" t="n">
-        <v>21.98</v>
-      </c>
-      <c r="K868" t="n">
-        <v>486.37</v>
-      </c>
-      <c r="L868" t="n">
-        <v>4.890000000000001</v>
-      </c>
-      <c r="M868" t="n">
-        <v>24.93999999999999</v>
-      </c>
-      <c r="N868" t="n">
-        <v>44.38</v>
-      </c>
     </row>
     <row r="869">
       <c r="A869" s="2" t="n">
@@ -40587,21 +39582,6 @@
       <c r="I869" t="n">
         <v>124.2</v>
       </c>
-      <c r="J869" t="n">
-        <v>106.88</v>
-      </c>
-      <c r="K869" t="n">
-        <v>642.7800000000001</v>
-      </c>
-      <c r="L869" t="n">
-        <v>14.36</v>
-      </c>
-      <c r="M869" t="n">
-        <v>11.24</v>
-      </c>
-      <c r="N869" t="n">
-        <v>32.18</v>
-      </c>
     </row>
     <row r="870">
       <c r="A870" s="2" t="n">
@@ -40636,21 +39616,6 @@
       <c r="I870" t="n">
         <v>188.55</v>
       </c>
-      <c r="J870" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="K870" t="n">
-        <v>778.98</v>
-      </c>
-      <c r="L870" t="n">
-        <v>24.66</v>
-      </c>
-      <c r="M870" t="n">
-        <v>29.57</v>
-      </c>
-      <c r="N870" t="n">
-        <v>65.68000000000001</v>
-      </c>
     </row>
     <row r="871">
       <c r="A871" s="2" t="n">
@@ -40680,21 +39645,6 @@
       <c r="I871" t="n">
         <v>165.6</v>
       </c>
-      <c r="J871" t="n">
-        <v>77.89999999999999</v>
-      </c>
-      <c r="K871" t="n">
-        <v>464.8699999999999</v>
-      </c>
-      <c r="L871" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="M871" t="n">
-        <v>8.130000000000001</v>
-      </c>
-      <c r="N871" t="n">
-        <v>21.25</v>
-      </c>
     </row>
     <row r="872">
       <c r="A872" s="2" t="n">
@@ -40727,21 +39677,6 @@
       <c r="I872" t="n">
         <v>242.1</v>
       </c>
-      <c r="J872" t="n">
-        <v>24.66</v>
-      </c>
-      <c r="K872" t="n">
-        <v>1025.57</v>
-      </c>
-      <c r="L872" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="M872" t="n">
-        <v>22.41</v>
-      </c>
-      <c r="N872" t="n">
-        <v>169.01</v>
-      </c>
     </row>
     <row r="873">
       <c r="A873" s="2" t="n">
@@ -40776,21 +39711,6 @@
       <c r="I873" t="n">
         <v>215.55</v>
       </c>
-      <c r="J873" t="n">
-        <v>41.96</v>
-      </c>
-      <c r="K873" t="n">
-        <v>665.22</v>
-      </c>
-      <c r="L873" t="n">
-        <v>13.73</v>
-      </c>
-      <c r="M873" t="n">
-        <v>21.45</v>
-      </c>
-      <c r="N873" t="n">
-        <v>74.33000000000001</v>
-      </c>
     </row>
     <row r="874">
       <c r="A874" s="2" t="n">
@@ -40818,21 +39738,6 @@
       <c r="I874" t="n">
         <v>261.45</v>
       </c>
-      <c r="J874" t="n">
-        <v>83.48</v>
-      </c>
-      <c r="K874" t="n">
-        <v>1263.8</v>
-      </c>
-      <c r="L874" t="n">
-        <v>25.59</v>
-      </c>
-      <c r="M874" t="n">
-        <v>51.29999999999999</v>
-      </c>
-      <c r="N874" t="n">
-        <v>118.62</v>
-      </c>
     </row>
     <row r="875">
       <c r="A875" s="2" t="n">
@@ -40862,21 +39767,6 @@
       <c r="I875" t="n">
         <v>234.9</v>
       </c>
-      <c r="J875" t="n">
-        <v>20.59</v>
-      </c>
-      <c r="K875" t="n">
-        <v>1076.01</v>
-      </c>
-      <c r="L875" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="M875" t="n">
-        <v>38.22</v>
-      </c>
-      <c r="N875" t="n">
-        <v>158.95</v>
-      </c>
     </row>
     <row r="876">
       <c r="A876" s="2" t="n">
@@ -40908,21 +39798,6 @@
       </c>
       <c r="I876" t="n">
         <v>207.9</v>
-      </c>
-      <c r="J876" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="K876" t="n">
-        <v>483.56</v>
-      </c>
-      <c r="L876" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="M876" t="n">
-        <v>25.76</v>
-      </c>
-      <c r="N876" t="n">
-        <v>54.23</v>
       </c>
     </row>
     <row r="877">
@@ -40953,21 +39828,6 @@
       </c>
       <c r="I877" t="n">
         <v>121.5</v>
-      </c>
-      <c r="J877" t="n">
-        <v>58.93</v>
-      </c>
-      <c r="K877" t="n">
-        <v>730.1</v>
-      </c>
-      <c r="L877" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M877" t="n">
-        <v>39.09999999999999</v>
-      </c>
-      <c r="N877" t="n">
-        <v>34.16</v>
       </c>
     </row>
     <row r="878">
@@ -40999,21 +39859,6 @@
       </c>
       <c r="I878" t="n">
         <v>193.95</v>
-      </c>
-      <c r="J878" t="n">
-        <v>22.16</v>
-      </c>
-      <c r="K878" t="n">
-        <v>605.58</v>
-      </c>
-      <c r="L878" t="n">
-        <v>7.199999999999999</v>
-      </c>
-      <c r="M878" t="n">
-        <v>19.23999999999999</v>
-      </c>
-      <c r="N878" t="n">
-        <v>81.74000000000001</v>
       </c>
     </row>
     <row r="879">
@@ -41047,21 +39892,6 @@
       <c r="I879" t="n">
         <v>90.44999999999999</v>
       </c>
-      <c r="J879" t="n">
-        <v>61.88</v>
-      </c>
-      <c r="K879" t="n">
-        <v>474.0500000000001</v>
-      </c>
-      <c r="L879" t="n">
-        <v>14.54</v>
-      </c>
-      <c r="M879" t="n">
-        <v>14.83</v>
-      </c>
-      <c r="N879" t="n">
-        <v>29.1</v>
-      </c>
     </row>
     <row r="880">
       <c r="A880" s="2" t="n">
@@ -41092,21 +39922,6 @@
       <c r="I880" t="n">
         <v>136.35</v>
       </c>
-      <c r="J880" t="n">
-        <v>13.81</v>
-      </c>
-      <c r="K880" t="n">
-        <v>52</v>
-      </c>
-      <c r="L880" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="M880" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="N880" t="n">
-        <v>0.26</v>
-      </c>
     </row>
     <row r="881">
       <c r="A881" s="2" t="n">
@@ -41135,21 +39950,6 @@
       </c>
       <c r="I881" t="n">
         <v>113.85</v>
-      </c>
-      <c r="J881" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="K881" t="n">
-        <v>89.5</v>
-      </c>
-      <c r="L881" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M881" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="N881" t="n">
-        <v>5.14</v>
       </c>
     </row>
     <row r="882">
@@ -41181,21 +39981,6 @@
       <c r="I882" t="n">
         <v>115.65</v>
       </c>
-      <c r="J882" t="n">
-        <v>49.81</v>
-      </c>
-      <c r="K882" t="n">
-        <v>410.93</v>
-      </c>
-      <c r="L882" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="M882" t="n">
-        <v>13.24</v>
-      </c>
-      <c r="N882" t="n">
-        <v>22.86</v>
-      </c>
     </row>
     <row r="883">
       <c r="A883" s="2" t="n">
@@ -41225,21 +40010,6 @@
       </c>
       <c r="I883" t="n">
         <v>102.6</v>
-      </c>
-      <c r="J883" t="n">
-        <v>26.65</v>
-      </c>
-      <c r="K883" t="n">
-        <v>607.3899999999999</v>
-      </c>
-      <c r="L883" t="n">
-        <v>7.399999999999999</v>
-      </c>
-      <c r="M883" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="N883" t="n">
-        <v>57.37</v>
       </c>
     </row>
     <row r="884">
@@ -41272,21 +40042,6 @@
       <c r="I884" t="n">
         <v>103.5</v>
       </c>
-      <c r="J884" t="n">
-        <v>53.13</v>
-      </c>
-      <c r="K884" t="n">
-        <v>1625.06</v>
-      </c>
-      <c r="L884" t="n">
-        <v>21.05</v>
-      </c>
-      <c r="M884" t="n">
-        <v>131.26</v>
-      </c>
-      <c r="N884" t="n">
-        <v>82.44</v>
-      </c>
     </row>
     <row r="885">
       <c r="A885" s="2" t="n">
@@ -41317,21 +40072,6 @@
       <c r="I885" t="n">
         <v>98.10000000000001</v>
       </c>
-      <c r="J885" t="n">
-        <v>42.46</v>
-      </c>
-      <c r="K885" t="n">
-        <v>374.3099999999999</v>
-      </c>
-      <c r="L885" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="M885" t="n">
-        <v>12.81</v>
-      </c>
-      <c r="N885" t="n">
-        <v>21.36</v>
-      </c>
     </row>
     <row r="886">
       <c r="A886" s="2" t="n">
@@ -41361,21 +40101,6 @@
       </c>
       <c r="I886" t="n">
         <v>175.05</v>
-      </c>
-      <c r="J886" t="n">
-        <v>61.88</v>
-      </c>
-      <c r="K886" t="n">
-        <v>474.0500000000001</v>
-      </c>
-      <c r="L886" t="n">
-        <v>14.54</v>
-      </c>
-      <c r="M886" t="n">
-        <v>14.83</v>
-      </c>
-      <c r="N886" t="n">
-        <v>29.1</v>
       </c>
     </row>
     <row r="887">
@@ -41408,21 +40133,6 @@
       <c r="I887" t="n">
         <v>96.30000000000001</v>
       </c>
-      <c r="J887" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="K887" t="n">
-        <v>590.26</v>
-      </c>
-      <c r="L887" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M887" t="n">
-        <v>36.89</v>
-      </c>
-      <c r="N887" t="n">
-        <v>59.59999999999999</v>
-      </c>
     </row>
     <row r="888">
       <c r="A888" s="2" t="n">
@@ -41455,21 +40165,6 @@
       <c r="I888" t="n">
         <v>186.3</v>
       </c>
-      <c r="J888" t="n">
-        <v>30.19</v>
-      </c>
-      <c r="K888" t="n">
-        <v>318.57</v>
-      </c>
-      <c r="L888" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="M888" t="n">
-        <v>13.44</v>
-      </c>
-      <c r="N888" t="n">
-        <v>18.47</v>
-      </c>
     </row>
     <row r="889">
       <c r="A889" s="2" t="n">
@@ -41496,21 +40191,6 @@
       </c>
       <c r="I889" t="n">
         <v>172.35</v>
-      </c>
-      <c r="J889" t="n">
-        <v>23.43</v>
-      </c>
-      <c r="K889" t="n">
-        <v>179.5</v>
-      </c>
-      <c r="L889" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="M889" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="N889" t="n">
-        <v>11.15</v>
       </c>
     </row>
     <row r="890">
@@ -41550,21 +40230,6 @@
       <c r="I890" t="n">
         <v>151.2</v>
       </c>
-      <c r="J890" t="n">
-        <v>9.610000000000001</v>
-      </c>
-      <c r="K890" t="n">
-        <v>588.7</v>
-      </c>
-      <c r="L890" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="M890" t="n">
-        <v>35</v>
-      </c>
-      <c r="N890" t="n">
-        <v>58.48</v>
-      </c>
     </row>
     <row r="891">
       <c r="A891" s="2" t="n">
@@ -41599,21 +40264,6 @@
       </c>
       <c r="I891" t="n">
         <v>170.55</v>
-      </c>
-      <c r="J891" t="n">
-        <v>42.46</v>
-      </c>
-      <c r="K891" t="n">
-        <v>374.3099999999999</v>
-      </c>
-      <c r="L891" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="M891" t="n">
-        <v>12.81</v>
-      </c>
-      <c r="N891" t="n">
-        <v>21.36</v>
       </c>
     </row>
     <row r="892">
@@ -41650,21 +40300,6 @@
       </c>
       <c r="I892" t="n">
         <v>159.3</v>
-      </c>
-      <c r="J892" t="n">
-        <v>14.81</v>
-      </c>
-      <c r="K892" t="n">
-        <v>71.40000000000001</v>
-      </c>
-      <c r="L892" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="M892" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="N892" t="n">
-        <v>4.140000000000001</v>
       </c>
     </row>
     <row r="893">

--- a/Data Cleaning/nutritionixAPI/withNutrients.xlsx
+++ b/Data Cleaning/nutritionixAPI/withNutrients.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44489,6 +44489,21 @@
       <c r="I952" t="n">
         <v>178.65</v>
       </c>
+      <c r="J952" t="n">
+        <v>21.54</v>
+      </c>
+      <c r="K952" t="n">
+        <v>126</v>
+      </c>
+      <c r="L952" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="M952" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="N952" t="n">
+        <v>6.66</v>
+      </c>
     </row>
     <row r="953">
       <c r="A953" s="3" t="n">
@@ -44519,6 +44534,21 @@
       <c r="I953" t="n">
         <v>144.45</v>
       </c>
+      <c r="J953" t="n">
+        <v>21.26</v>
+      </c>
+      <c r="K953" t="n">
+        <v>111.81</v>
+      </c>
+      <c r="L953" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="M953" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="N953" t="n">
+        <v>4.93</v>
+      </c>
     </row>
     <row r="954">
       <c r="A954" s="3" t="n">
@@ -44549,6 +44579,21 @@
       <c r="I954" t="n">
         <v>148.5</v>
       </c>
+      <c r="J954" t="n">
+        <v>95.19</v>
+      </c>
+      <c r="K954" t="n">
+        <v>690.6299999999999</v>
+      </c>
+      <c r="L954" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="M954" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="N954" t="n">
+        <v>22.54</v>
+      </c>
     </row>
     <row r="955">
       <c r="A955" s="3" t="n">
@@ -44583,6 +44628,21 @@
       <c r="I955" t="n">
         <v>171.45</v>
       </c>
+      <c r="J955" t="n">
+        <v>76.41</v>
+      </c>
+      <c r="K955" t="n">
+        <v>649.24</v>
+      </c>
+      <c r="L955" t="n">
+        <v>23.64</v>
+      </c>
+      <c r="M955" t="n">
+        <v>19.56</v>
+      </c>
+      <c r="N955" t="n">
+        <v>42.62</v>
+      </c>
     </row>
     <row r="956">
       <c r="A956" s="3" t="n">
@@ -44610,6 +44670,21 @@
       </c>
       <c r="I956" t="n">
         <v>216.45</v>
+      </c>
+      <c r="J956" t="n">
+        <v>27.75</v>
+      </c>
+      <c r="K956" t="n">
+        <v>153</v>
+      </c>
+      <c r="L956" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="M956" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="N956" t="n">
+        <v>7.26</v>
       </c>
     </row>
     <row r="957">
@@ -44641,6 +44716,21 @@
       <c r="I957" t="n">
         <v>167.4</v>
       </c>
+      <c r="J957" t="n">
+        <v>64.2</v>
+      </c>
+      <c r="K957" t="n">
+        <v>319.55</v>
+      </c>
+      <c r="L957" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="M957" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="N957" t="n">
+        <v>12.28</v>
+      </c>
     </row>
     <row r="958">
       <c r="A958" s="3" t="n">
@@ -44671,6 +44761,21 @@
       <c r="I958" t="n">
         <v>162.45</v>
       </c>
+      <c r="J958" t="n">
+        <v>153.6</v>
+      </c>
+      <c r="K958" t="n">
+        <v>979.5200000000001</v>
+      </c>
+      <c r="L958" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="M958" t="n">
+        <v>26.03</v>
+      </c>
+      <c r="N958" t="n">
+        <v>30.82</v>
+      </c>
     </row>
     <row r="959">
       <c r="A959" s="3" t="n">
@@ -44706,6 +44811,21 @@
       <c r="I959" t="n">
         <v>149.85</v>
       </c>
+      <c r="J959" t="n">
+        <v>60.94</v>
+      </c>
+      <c r="K959" t="n">
+        <v>305.6</v>
+      </c>
+      <c r="L959" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="M959" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="N959" t="n">
+        <v>12.01</v>
+      </c>
     </row>
     <row r="960">
       <c r="A960" s="3" t="n">
@@ -44733,6 +44853,21 @@
       </c>
       <c r="I960" t="n">
         <v>181.8</v>
+      </c>
+      <c r="J960" t="n">
+        <v>21.54</v>
+      </c>
+      <c r="K960" t="n">
+        <v>126</v>
+      </c>
+      <c r="L960" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="M960" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="N960" t="n">
+        <v>6.66</v>
       </c>
     </row>
     <row r="961">
@@ -44764,6 +44899,21 @@
       <c r="I961" t="n">
         <v>124.2</v>
       </c>
+      <c r="J961" t="n">
+        <v>47.73</v>
+      </c>
+      <c r="K961" t="n">
+        <v>437.27</v>
+      </c>
+      <c r="L961" t="n">
+        <v>7.950000000000001</v>
+      </c>
+      <c r="M961" t="n">
+        <v>15.07</v>
+      </c>
+      <c r="N961" t="n">
+        <v>29.72</v>
+      </c>
     </row>
     <row r="962">
       <c r="A962" s="3" t="n">
@@ -44794,6 +44944,21 @@
       <c r="I962" t="n">
         <v>156.15</v>
       </c>
+      <c r="J962" t="n">
+        <v>40.63</v>
+      </c>
+      <c r="K962" t="n">
+        <v>355.0600000000001</v>
+      </c>
+      <c r="L962" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="M962" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="N962" t="n">
+        <v>19.74</v>
+      </c>
     </row>
     <row r="963">
       <c r="A963" s="3" t="n">
@@ -44829,6 +44994,21 @@
       <c r="I963" t="n">
         <v>173.7</v>
       </c>
+      <c r="J963" t="n">
+        <v>24.73</v>
+      </c>
+      <c r="K963" t="n">
+        <v>593.96</v>
+      </c>
+      <c r="L963" t="n">
+        <v>6.370000000000001</v>
+      </c>
+      <c r="M963" t="n">
+        <v>33.56</v>
+      </c>
+      <c r="N963" t="n">
+        <v>47.37</v>
+      </c>
     </row>
     <row r="964">
       <c r="A964" s="3" t="n">
@@ -44855,6 +45035,21 @@
       </c>
       <c r="I964" t="n">
         <v>150.75</v>
+      </c>
+      <c r="J964" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="K964" t="n">
+        <v>63</v>
+      </c>
+      <c r="L964" t="n">
+        <v>0</v>
+      </c>
+      <c r="M964" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="N964" t="n">
+        <v>5.25</v>
       </c>
     </row>
     <row r="965">
@@ -44886,6 +45081,21 @@
       <c r="I965" t="n">
         <v>154.35</v>
       </c>
+      <c r="J965" t="n">
+        <v>21.38</v>
+      </c>
+      <c r="K965" t="n">
+        <v>477.33</v>
+      </c>
+      <c r="L965" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="M965" t="n">
+        <v>26.05</v>
+      </c>
+      <c r="N965" t="n">
+        <v>39.83</v>
+      </c>
     </row>
     <row r="966">
       <c r="A966" s="3" t="n">
@@ -44916,6 +45126,21 @@
       <c r="I966" t="n">
         <v>167.4</v>
       </c>
+      <c r="J966" t="n">
+        <v>82.39</v>
+      </c>
+      <c r="K966" t="n">
+        <v>486.3200000000001</v>
+      </c>
+      <c r="L966" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M966" t="n">
+        <v>7.880000000000001</v>
+      </c>
+      <c r="N966" t="n">
+        <v>24.84</v>
+      </c>
     </row>
     <row r="967">
       <c r="A967" s="3" t="n">
@@ -44949,6 +45174,21 @@
       </c>
       <c r="I967" t="n">
         <v>171.9</v>
+      </c>
+      <c r="J967" t="n">
+        <v>41.26</v>
+      </c>
+      <c r="K967" t="n">
+        <v>272.15</v>
+      </c>
+      <c r="L967" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="M967" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="N967" t="n">
+        <v>15.27</v>
       </c>
     </row>
     <row r="968">
@@ -44980,6 +45220,21 @@
       <c r="I968" t="n">
         <v>134.55</v>
       </c>
+      <c r="J968" t="n">
+        <v>32.22</v>
+      </c>
+      <c r="K968" t="n">
+        <v>338.65</v>
+      </c>
+      <c r="L968" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="M968" t="n">
+        <v>13.44</v>
+      </c>
+      <c r="N968" t="n">
+        <v>21.73</v>
+      </c>
     </row>
     <row r="969">
       <c r="A969" s="3" t="n">
@@ -45010,6 +45265,21 @@
       <c r="I969" t="n">
         <v>117.9</v>
       </c>
+      <c r="J969" t="n">
+        <v>61.01</v>
+      </c>
+      <c r="K969" t="n">
+        <v>388.37</v>
+      </c>
+      <c r="L969" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="M969" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="N969" t="n">
+        <v>19.07</v>
+      </c>
     </row>
     <row r="970">
       <c r="A970" s="3" t="n">
@@ -45036,6 +45306,21 @@
       </c>
       <c r="I970" t="n">
         <v>144.9</v>
+      </c>
+      <c r="J970" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="K970" t="n">
+        <v>275.95</v>
+      </c>
+      <c r="L970" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="M970" t="n">
+        <v>13.53</v>
+      </c>
+      <c r="N970" t="n">
+        <v>24.4</v>
       </c>
     </row>
     <row r="971">
@@ -45067,6 +45352,21 @@
       <c r="I971" t="n">
         <v>113.85</v>
       </c>
+      <c r="J971" t="n">
+        <v>42.61</v>
+      </c>
+      <c r="K971" t="n">
+        <v>368.56</v>
+      </c>
+      <c r="L971" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M971" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="N971" t="n">
+        <v>20.34</v>
+      </c>
     </row>
     <row r="972">
       <c r="A972" s="3" t="n">
@@ -45096,6 +45396,21 @@
       <c r="I972" t="n">
         <v>60.3</v>
       </c>
+      <c r="J972" t="n">
+        <v>25.13</v>
+      </c>
+      <c r="K972" t="n">
+        <v>209.52</v>
+      </c>
+      <c r="L972" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="M972" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="N972" t="n">
+        <v>12.08</v>
+      </c>
     </row>
     <row r="973">
       <c r="A973" s="3" t="n">
@@ -45122,6 +45437,21 @@
       </c>
       <c r="I973" t="n">
         <v>41.40000000000001</v>
+      </c>
+      <c r="J973" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="K973" t="n">
+        <v>15</v>
+      </c>
+      <c r="L973" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M973" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="N973" t="n">
+        <v>0.65</v>
       </c>
     </row>
     <row r="974">
@@ -45152,6 +45482,21 @@
       </c>
       <c r="I974" t="n">
         <v>84.15000000000001</v>
+      </c>
+      <c r="J974" t="n">
+        <v>49.22</v>
+      </c>
+      <c r="K974" t="n">
+        <v>643.14</v>
+      </c>
+      <c r="L974" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="M974" t="n">
+        <v>32.43</v>
+      </c>
+      <c r="N974" t="n">
+        <v>42.49</v>
       </c>
     </row>
     <row r="975">
@@ -45188,6 +45533,21 @@
       <c r="I975" t="n">
         <v>75.15000000000001</v>
       </c>
+      <c r="J975" t="n">
+        <v>37.39</v>
+      </c>
+      <c r="K975" t="n">
+        <v>746.11</v>
+      </c>
+      <c r="L975" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="M975" t="n">
+        <v>49.07</v>
+      </c>
+      <c r="N975" t="n">
+        <v>43.92</v>
+      </c>
     </row>
     <row r="976">
       <c r="A976" s="3" t="n">
@@ -45214,6 +45574,21 @@
       </c>
       <c r="I976" t="n">
         <v>101.7</v>
+      </c>
+      <c r="J976" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="K976" t="n">
+        <v>45</v>
+      </c>
+      <c r="L976" t="n">
+        <v>3</v>
+      </c>
+      <c r="M976" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N976" t="n">
+        <v>2.2</v>
       </c>
     </row>
     <row r="977">
@@ -45245,6 +45620,21 @@
       <c r="I977" t="n">
         <v>118.8</v>
       </c>
+      <c r="J977" t="n">
+        <v>34.61</v>
+      </c>
+      <c r="K977" t="n">
+        <v>191.2</v>
+      </c>
+      <c r="L977" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="M977" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="N977" t="n">
+        <v>7.459999999999999</v>
+      </c>
     </row>
     <row r="978">
       <c r="A978" s="3" t="n">
@@ -45272,6 +45662,21 @@
       <c r="I978" t="n">
         <v>86.40000000000001</v>
       </c>
+      <c r="J978" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="K978" t="n">
+        <v>18</v>
+      </c>
+      <c r="L978" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M978" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N978" t="n">
+        <v>0.88</v>
+      </c>
     </row>
     <row r="979">
       <c r="A979" s="3" t="n">
@@ -45298,6 +45703,21 @@
       </c>
       <c r="I979" t="n">
         <v>85.95</v>
+      </c>
+      <c r="J979" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="K979" t="n">
+        <v>26</v>
+      </c>
+      <c r="L979" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M979" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="N979" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="980">
@@ -45331,6 +45751,21 @@
       <c r="I980" t="n">
         <v>103.95</v>
       </c>
+      <c r="J980" t="n">
+        <v>104.93</v>
+      </c>
+      <c r="K980" t="n">
+        <v>674.55</v>
+      </c>
+      <c r="L980" t="n">
+        <v>17.96</v>
+      </c>
+      <c r="M980" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="N980" t="n">
+        <v>39.2</v>
+      </c>
     </row>
     <row r="981">
       <c r="A981" s="3" t="n">
@@ -45363,6 +45798,21 @@
       <c r="I981" t="n">
         <v>85.05</v>
       </c>
+      <c r="J981" t="n">
+        <v>45.98</v>
+      </c>
+      <c r="K981" t="n">
+        <v>977.03</v>
+      </c>
+      <c r="L981" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="M981" t="n">
+        <v>48.48</v>
+      </c>
+      <c r="N981" t="n">
+        <v>96.62</v>
+      </c>
     </row>
     <row r="982">
       <c r="A982" s="3" t="n">
@@ -45390,6 +45840,21 @@
       <c r="I982" t="n">
         <v>83.25</v>
       </c>
+      <c r="J982" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K982" t="n">
+        <v>36</v>
+      </c>
+      <c r="L982" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M982" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N982" t="n">
+        <v>1.76</v>
+      </c>
     </row>
     <row r="983">
       <c r="A983" s="3" t="n">
@@ -45418,6 +45883,21 @@
       <c r="I983" t="n">
         <v>123.75</v>
       </c>
+      <c r="J983" t="n">
+        <v>39.08</v>
+      </c>
+      <c r="K983" t="n">
+        <v>210</v>
+      </c>
+      <c r="L983" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="M983" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="N983" t="n">
+        <v>13.4</v>
+      </c>
     </row>
     <row r="984">
       <c r="A984" s="3" t="n">
@@ -45446,6 +45926,21 @@
       </c>
       <c r="I984" t="n">
         <v>156.15</v>
+      </c>
+      <c r="J984" t="n">
+        <v>52.76000000000001</v>
+      </c>
+      <c r="K984" t="n">
+        <v>441.78</v>
+      </c>
+      <c r="L984" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="M984" t="n">
+        <v>14.62</v>
+      </c>
+      <c r="N984" t="n">
+        <v>23.95</v>
       </c>
     </row>
     <row r="985">
@@ -45477,6 +45972,21 @@
       <c r="I985" t="n">
         <v>90.89999999999999</v>
       </c>
+      <c r="J985" t="n">
+        <v>37.38999999999999</v>
+      </c>
+      <c r="K985" t="n">
+        <v>423.75</v>
+      </c>
+      <c r="L985" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="M985" t="n">
+        <v>18.34</v>
+      </c>
+      <c r="N985" t="n">
+        <v>29.21</v>
+      </c>
     </row>
     <row r="986">
       <c r="A986" s="3" t="n">
@@ -45504,6 +46014,21 @@
       <c r="I986" t="n">
         <v>78.75</v>
       </c>
+      <c r="J986" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="K986" t="n">
+        <v>30</v>
+      </c>
+      <c r="L986" t="n">
+        <v>1</v>
+      </c>
+      <c r="M986" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="N986" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="987">
       <c r="A987" s="3" t="n">
@@ -45532,6 +46057,21 @@
       <c r="I987" t="n">
         <v>139.95</v>
       </c>
+      <c r="J987" t="n">
+        <v>54.48</v>
+      </c>
+      <c r="K987" t="n">
+        <v>235.2</v>
+      </c>
+      <c r="L987" t="n">
+        <v>8.52</v>
+      </c>
+      <c r="M987" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="N987" t="n">
+        <v>5.88</v>
+      </c>
     </row>
     <row r="988">
       <c r="A988" s="3" t="n">
@@ -45561,6 +46101,21 @@
       <c r="I988" t="n">
         <v>122.85</v>
       </c>
+      <c r="J988" t="n">
+        <v>70.14</v>
+      </c>
+      <c r="K988" t="n">
+        <v>492.5</v>
+      </c>
+      <c r="L988" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="M988" t="n">
+        <v>15.77</v>
+      </c>
+      <c r="N988" t="n">
+        <v>28.24</v>
+      </c>
     </row>
     <row r="989">
       <c r="A989" s="3" t="n">
@@ -45587,6 +46142,21 @@
       </c>
       <c r="I989" t="n">
         <v>75.59999999999999</v>
+      </c>
+      <c r="J989" t="n">
+        <v>20.72</v>
+      </c>
+      <c r="K989" t="n">
+        <v>78</v>
+      </c>
+      <c r="L989" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M989" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="N989" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="990">
@@ -45618,6 +46188,21 @@
       <c r="I990" t="n">
         <v>86.84999999999999</v>
       </c>
+      <c r="J990" t="n">
+        <v>68.61999999999999</v>
+      </c>
+      <c r="K990" t="n">
+        <v>484.48</v>
+      </c>
+      <c r="L990" t="n">
+        <v>6.290000000000001</v>
+      </c>
+      <c r="M990" t="n">
+        <v>15.23</v>
+      </c>
+      <c r="N990" t="n">
+        <v>22.45</v>
+      </c>
     </row>
     <row r="991">
       <c r="A991" s="3" t="n">
@@ -45645,6 +46230,21 @@
       <c r="I991" t="n">
         <v>84.59999999999999</v>
       </c>
+      <c r="J991" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K991" t="n">
+        <v>36</v>
+      </c>
+      <c r="L991" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M991" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N991" t="n">
+        <v>1.76</v>
+      </c>
     </row>
     <row r="992">
       <c r="A992" s="3" t="n">
@@ -45674,6 +46274,21 @@
       <c r="I992" t="n">
         <v>162</v>
       </c>
+      <c r="J992" t="n">
+        <v>35.39</v>
+      </c>
+      <c r="K992" t="n">
+        <v>537.83</v>
+      </c>
+      <c r="L992" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="M992" t="n">
+        <v>24.94</v>
+      </c>
+      <c r="N992" t="n">
+        <v>43.21000000000001</v>
+      </c>
     </row>
     <row r="993">
       <c r="A993" s="3" t="n">
@@ -45702,6 +46317,21 @@
       </c>
       <c r="I993" t="n">
         <v>81</v>
+      </c>
+      <c r="J993" t="n">
+        <v>99.30000000000001</v>
+      </c>
+      <c r="K993" t="n">
+        <v>770.55</v>
+      </c>
+      <c r="L993" t="n">
+        <v>16.71</v>
+      </c>
+      <c r="M993" t="n">
+        <v>20.77</v>
+      </c>
+      <c r="N993" t="n">
+        <v>46.75</v>
       </c>
     </row>
     <row r="994">
@@ -45733,6 +46363,21 @@
       <c r="I994" t="n">
         <v>102.6</v>
       </c>
+      <c r="J994" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="K994" t="n">
+        <v>286.5</v>
+      </c>
+      <c r="L994" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M994" t="n">
+        <v>4.649999999999999</v>
+      </c>
+      <c r="N994" t="n">
+        <v>52.71</v>
+      </c>
     </row>
     <row r="995">
       <c r="A995" s="3" t="n">
@@ -45760,6 +46405,21 @@
       </c>
       <c r="I995" t="n">
         <v>84.15000000000001</v>
+      </c>
+      <c r="J995" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="K995" t="n">
+        <v>537.1900000000001</v>
+      </c>
+      <c r="L995" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="M995" t="n">
+        <v>24.38</v>
+      </c>
+      <c r="N995" t="n">
+        <v>26.88</v>
       </c>
     </row>
     <row r="996">
@@ -45791,6 +46451,21 @@
       <c r="I996" t="n">
         <v>157.95</v>
       </c>
+      <c r="J996" t="n">
+        <v>45.45</v>
+      </c>
+      <c r="K996" t="n">
+        <v>372.75</v>
+      </c>
+      <c r="L996" t="n">
+        <v>7.300000000000001</v>
+      </c>
+      <c r="M996" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="N996" t="n">
+        <v>34.13</v>
+      </c>
     </row>
     <row r="997">
       <c r="A997" s="3" t="n">
@@ -45818,6 +46493,21 @@
       <c r="I997" t="n">
         <v>237.6</v>
       </c>
+      <c r="J997" t="n">
+        <v>52.66</v>
+      </c>
+      <c r="K997" t="n">
+        <v>291.9</v>
+      </c>
+      <c r="L997" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="M997" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="N997" t="n">
+        <v>10.36</v>
+      </c>
     </row>
     <row r="998">
       <c r="A998" s="3" t="n">
@@ -45845,6 +46535,21 @@
       <c r="I998" t="n">
         <v>74.69999999999999</v>
       </c>
+      <c r="J998" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="K998" t="n">
+        <v>26.75</v>
+      </c>
+      <c r="L998" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="M998" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="N998" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="999">
       <c r="A999" s="3" t="n">
@@ -45871,6 +46576,21 @@
       </c>
       <c r="I999" t="n">
         <v>200.7</v>
+      </c>
+      <c r="J999" t="n">
+        <v>22.07</v>
+      </c>
+      <c r="K999" t="n">
+        <v>122.32</v>
+      </c>
+      <c r="L999" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="M999" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="N999" t="n">
+        <v>4.34</v>
       </c>
     </row>
     <row r="1000">
@@ -45903,6 +46623,21 @@
       <c r="I1000" t="n">
         <v>198.9</v>
       </c>
+      <c r="J1000" t="n">
+        <v>23.94</v>
+      </c>
+      <c r="K1000" t="n">
+        <v>316.09</v>
+      </c>
+      <c r="L1000" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="M1000" t="n">
+        <v>19.64</v>
+      </c>
+      <c r="N1000" t="n">
+        <v>13.99</v>
+      </c>
     </row>
     <row r="1001">
       <c r="A1001" s="3" t="n">
@@ -45933,6 +46668,21 @@
       </c>
       <c r="I1001" t="n">
         <v>186.75</v>
+      </c>
+      <c r="J1001" t="n">
+        <v>35.94</v>
+      </c>
+      <c r="K1001" t="n">
+        <v>258.3</v>
+      </c>
+      <c r="L1001" t="n">
+        <v>4.319999999999999</v>
+      </c>
+      <c r="M1001" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="N1001" t="n">
+        <v>21.33</v>
       </c>
     </row>
     <row r="1002">

--- a/Data Cleaning/nutritionixAPI/withNutrients.xlsx
+++ b/Data Cleaning/nutritionixAPI/withNutrients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thushara Piyasekara\Downloads\IIT\Year 2 Semester 2\SDGP Implementaion\Diabuddies_SDGP\Data Cleaning\nutritionixAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA752751-014F-49D1-BAAC-DB714A2A9445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8ED660E-B367-452E-AD04-B3C2DCFC758E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="84" yWindow="324" windowWidth="22956" windowHeight="12636" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="276" windowWidth="22956" windowHeight="12636" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12890,12 +12890,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13200,17 +13203,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N2576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="E116" sqref="E116"/>
+    <sheetView tabSelected="1" topLeftCell="B2495" zoomScale="90" workbookViewId="0">
+      <selection activeCell="B2503" sqref="B2503"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="123.6640625" customWidth="1"/>
+    <col min="2" max="2" width="134" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="61.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5546875" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13840,11 +13843,11 @@
         <v>18.16</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>44193.518750000003</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E17" t="s">
@@ -14460,11 +14463,11 @@
         <v>36.979999999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>44198.383333333331</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D33" t="s">
@@ -14890,11 +14893,11 @@
         <v>20.309999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>44201.508333333331</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E44" t="s">
@@ -14928,11 +14931,11 @@
         <v>11.76</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44201.789583333331</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E45" t="s">
@@ -15007,11 +15010,11 @@
         <v>19.22</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>44202.487500000003</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E47" t="s">
@@ -89105,11 +89108,11 @@
         <v>193.95</v>
       </c>
     </row>
-    <row r="2503" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2503" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2503" s="2">
         <v>44153.748611111107</v>
       </c>
-      <c r="B2503" t="s">
+      <c r="B2503" s="3" t="s">
         <v>2456</v>
       </c>
       <c r="E2503" t="s">
@@ -89151,11 +89154,11 @@
         <v>218.25</v>
       </c>
     </row>
-    <row r="2505" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2505" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2505" s="2">
         <v>44154.509027777778</v>
       </c>
-      <c r="B2505" t="s">
+      <c r="B2505" s="3" t="s">
         <v>2458</v>
       </c>
       <c r="E2505" t="s">
@@ -90715,11 +90718,11 @@
         <v>167.4</v>
       </c>
     </row>
-    <row r="2573" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2573" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A2573" s="2">
         <v>44164.376388888893</v>
       </c>
-      <c r="B2573" t="s">
+      <c r="B2573" s="3" t="s">
         <v>2525</v>
       </c>
       <c r="E2573" t="s">
@@ -90761,11 +90764,11 @@
         <v>85.949999999999989</v>
       </c>
     </row>
-    <row r="2575" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2575" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A2575" s="2">
         <v>44164.772222222222</v>
       </c>
-      <c r="B2575" t="s">
+      <c r="B2575" s="3" t="s">
         <v>2527</v>
       </c>
       <c r="E2575" t="s">
@@ -90784,11 +90787,11 @@
         <v>94.949999999999989</v>
       </c>
     </row>
-    <row r="2576" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2576" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2576" s="2">
         <v>44165.240972222222</v>
       </c>
-      <c r="B2576" t="s">
+      <c r="B2576" s="3" t="s">
         <v>2528</v>
       </c>
       <c r="E2576" t="s">
